--- a/QuantLibXL/Data2/XLS/EUR/EUR_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR/EUR_YCSTDBootstrapping.xlsx
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="130">
   <si>
     <t>60Y</t>
   </si>
@@ -608,9 +608,6 @@
   </si>
   <si>
     <t>Stub End Date</t>
-  </si>
-  <si>
-    <t>M5</t>
   </si>
 </sst>
 </file>
@@ -1704,6 +1701,7 @@
       <sheetName val="EuriborSwapIsdaFixA"/>
       <sheetName val="BasisSwap1MxM"/>
       <sheetName val="BasisSwap3M6M"/>
+      <sheetName val="BasisSwapEON3M"/>
       <sheetName val="BasisSwapxM12M"/>
       <sheetName val="Deposits"/>
       <sheetName val="FRA"/>
@@ -1721,6 +1719,7 @@
       <sheetName val="ForwardSwap6M"/>
       <sheetName val="1M (3)"/>
       <sheetName val="3M (4)"/>
+      <sheetName val="ON BASIS"/>
       <sheetName val="6M (3)"/>
       <sheetName val="1Y (3)"/>
       <sheetName val="Euribor 3M Time Series"/>
@@ -1763,6 +1762,8 @@
       <sheetData sheetId="25"/>
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2078,7 +2079,7 @@
     <row r="1" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="155" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.5.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Oct 13 2014 15:51:57</v>
+        <v>QuantLibXL 1.5.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Dec 24 2014 09:17:06</v>
       </c>
     </row>
     <row r="2" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2232,7 +2233,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="53">
-        <v>41942.65179398148</v>
+        <v>42058.648090277777</v>
       </c>
       <c r="E11" s="32"/>
       <c r="F11" s="31"/>
@@ -2287,7 +2288,7 @@
       </c>
       <c r="D14" s="50" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,_xll.ohPack(Selected!D2:D126),,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_EURYCSTD#0000</v>
+        <v>_EURYCSTD#0001</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="31"/>
@@ -2411,11 +2412,11 @@
       <c r="B23" s="33"/>
       <c r="C23" s="37">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41942</v>
+        <v>42058</v>
       </c>
       <c r="D23" s="36">
         <f>MAX(_xll.ohPack(Selected!J1:J126))</f>
-        <v>1.9470318614216137E-2</v>
+        <v>1.3450735814563609E-2</v>
       </c>
       <c r="E23" s="32"/>
       <c r="F23" s="31"/>
@@ -2424,11 +2425,11 @@
       <c r="B24" s="33"/>
       <c r="C24" s="35">
         <f>MAX(_xll.ohPack(Selected!I2:I126))</f>
-        <v>63863</v>
+        <v>63975</v>
       </c>
       <c r="D24" s="34">
         <f>MIN(_xll.ohPack(Selected!J1:J126))</f>
-        <v>4.0555533025081675E-4</v>
+        <v>-8.111120123927767E-4</v>
       </c>
       <c r="E24" s="32"/>
       <c r="F24" s="31"/>
@@ -2558,7 +2559,7 @@
     <row r="2" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="166" t="str">
         <f>Deposits!E3</f>
-        <v>obj_00615#0000</v>
+        <v>obj_005f2#0000</v>
       </c>
       <c r="C2" s="167" t="str">
         <f>_xll.qlRateHelperQuoteName(B2)</f>
@@ -2566,7 +2567,7 @@
       </c>
       <c r="D2" s="168">
         <f>_xll.qlRateHelperQuoteValue($B2,Trigger)</f>
-        <v>4.0000000000000002E-4</v>
+        <v>-1E-3</v>
       </c>
       <c r="E2" s="168"/>
       <c r="F2" s="169" t="b">
@@ -2580,11 +2581,11 @@
       </c>
       <c r="I2" s="170">
         <f>_xll.qlRateHelperEarliestDate($B2,Trigger)</f>
-        <v>41942</v>
+        <v>42058</v>
       </c>
       <c r="J2" s="171">
         <f>_xll.qlRateHelperLatestDate($B2,Trigger)</f>
-        <v>41943</v>
+        <v>42059</v>
       </c>
       <c r="K2" s="63"/>
       <c r="L2" s="63"/>
@@ -2592,7 +2593,7 @@
     <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" s="172" t="str">
         <f>Deposits!E4</f>
-        <v>obj_0060f#0000</v>
+        <v>obj_005e5#0000</v>
       </c>
       <c r="C3" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B3)</f>
@@ -2600,7 +2601,7 @@
       </c>
       <c r="D3" s="174">
         <f>_xll.qlRateHelperQuoteValue($B3,Trigger)</f>
-        <v>5.0000000000000001E-4</v>
+        <v>-8.9999999999999998E-4</v>
       </c>
       <c r="E3" s="174"/>
       <c r="F3" s="175" t="b">
@@ -2614,11 +2615,11 @@
       </c>
       <c r="I3" s="176">
         <f>_xll.qlRateHelperEarliestDate($B3,Trigger)</f>
-        <v>41943</v>
+        <v>42059</v>
       </c>
       <c r="J3" s="177">
         <f>_xll.qlRateHelperLatestDate($B3,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="K3" s="63"/>
       <c r="L3" s="63"/>
@@ -2626,7 +2627,7 @@
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" s="172" t="str">
         <f>Deposits!E5</f>
-        <v>obj_00602#0000</v>
+        <v>obj_005d9#0000</v>
       </c>
       <c r="C4" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B4)</f>
@@ -2634,7 +2635,7 @@
       </c>
       <c r="D4" s="174">
         <f>_xll.qlRateHelperQuoteValue($B4,Trigger)</f>
-        <v>5.0000000000000001E-4</v>
+        <v>-8.9999999999999998E-4</v>
       </c>
       <c r="E4" s="174"/>
       <c r="F4" s="175" t="b">
@@ -2648,11 +2649,11 @@
       </c>
       <c r="I4" s="176">
         <f>_xll.qlRateHelperEarliestDate($B4,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J4" s="177">
         <f>_xll.qlRateHelperLatestDate($B4,Trigger)</f>
-        <v>41947</v>
+        <v>42061</v>
       </c>
       <c r="K4" s="63"/>
       <c r="L4" s="63"/>
@@ -2660,7 +2661,7 @@
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="172" t="str">
         <f>Deposits!E6</f>
-        <v>obj_00600#0000</v>
+        <v>obj_005e8#0000</v>
       </c>
       <c r="C5" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B5)</f>
@@ -2668,7 +2669,7 @@
       </c>
       <c r="D5" s="174">
         <f>_xll.qlRateHelperQuoteValue($B5,Trigger)</f>
-        <v>8.9999999999999998E-4</v>
+        <v>-6.9999999999999988E-4</v>
       </c>
       <c r="E5" s="174"/>
       <c r="F5" s="175" t="b">
@@ -2682,11 +2683,11 @@
       </c>
       <c r="I5" s="176">
         <f>_xll.qlRateHelperEarliestDate($B5,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J5" s="177">
         <f>_xll.qlRateHelperLatestDate($B5,Trigger)</f>
-        <v>41953</v>
+        <v>42067</v>
       </c>
       <c r="K5" s="63"/>
       <c r="L5" s="63"/>
@@ -2694,7 +2695,7 @@
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="172" t="str">
         <f>Deposits!E7</f>
-        <v>obj_0060a#0000</v>
+        <v>obj_005e9#0000</v>
       </c>
       <c r="C6" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B6)</f>
@@ -2702,7 +2703,7 @@
       </c>
       <c r="D6" s="174">
         <f>_xll.qlRateHelperQuoteValue($B6,Trigger)</f>
-        <v>5.9999999999999995E-4</v>
+        <v>-5.0000000000000001E-4</v>
       </c>
       <c r="E6" s="174"/>
       <c r="F6" s="175" t="b">
@@ -2716,11 +2717,11 @@
       </c>
       <c r="I6" s="176">
         <f>_xll.qlRateHelperEarliestDate($B6,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J6" s="177">
         <f>_xll.qlRateHelperLatestDate($B6,Trigger)</f>
-        <v>41960</v>
+        <v>42074</v>
       </c>
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
@@ -2728,7 +2729,7 @@
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" s="172" t="str">
         <f>Deposits!E8</f>
-        <v>obj_00611#0000</v>
+        <v>obj_005f0#0000</v>
       </c>
       <c r="C7" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B7)</f>
@@ -2736,7 +2737,7 @@
       </c>
       <c r="D7" s="174">
         <f>_xll.qlRateHelperQuoteValue($B7,Trigger)</f>
-        <v>5.0000000000000001E-4</v>
+        <v>-2.9999999999999997E-4</v>
       </c>
       <c r="E7" s="174"/>
       <c r="F7" s="175" t="b">
@@ -2750,11 +2751,11 @@
       </c>
       <c r="I7" s="176">
         <f>_xll.qlRateHelperEarliestDate($B7,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J7" s="177">
         <f>_xll.qlRateHelperLatestDate($B7,Trigger)</f>
-        <v>41967</v>
+        <v>42081</v>
       </c>
       <c r="K7" s="63"/>
       <c r="L7" s="63"/>
@@ -2762,7 +2763,7 @@
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="172" t="str">
         <f>Deposits!E9</f>
-        <v>obj_0060e#0000</v>
+        <v>obj_005e2#0000</v>
       </c>
       <c r="C8" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B8)</f>
@@ -2770,7 +2771,7 @@
       </c>
       <c r="D8" s="174">
         <f>_xll.qlRateHelperQuoteValue($B8,Trigger)</f>
-        <v>4.0000000000000002E-4</v>
+        <v>-1E-4</v>
       </c>
       <c r="E8" s="174"/>
       <c r="F8" s="175" t="b">
@@ -2784,11 +2785,11 @@
       </c>
       <c r="I8" s="176">
         <f>_xll.qlRateHelperEarliestDate($B8,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J8" s="177">
         <f>_xll.qlRateHelperLatestDate($B8,Trigger)</f>
-        <v>41976</v>
+        <v>42088</v>
       </c>
       <c r="K8" s="63"/>
       <c r="L8" s="63"/>
@@ -2796,7 +2797,7 @@
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="172" t="str">
         <f>Deposits!E10</f>
-        <v>obj_00605#0000</v>
+        <v>obj_005de#0000</v>
       </c>
       <c r="C9" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B9)</f>
@@ -2804,7 +2805,7 @@
       </c>
       <c r="D9" s="174">
         <f>_xll.qlRateHelperQuoteValue($B9,Trigger)</f>
-        <v>7.000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="E9" s="174"/>
       <c r="F9" s="175" t="b">
@@ -2818,11 +2819,11 @@
       </c>
       <c r="I9" s="176">
         <f>_xll.qlRateHelperEarliestDate($B9,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J9" s="177">
         <f>_xll.qlRateHelperLatestDate($B9,Trigger)</f>
-        <v>42009</v>
+        <v>42121</v>
       </c>
       <c r="K9" s="63"/>
       <c r="L9" s="63"/>
@@ -2830,7 +2831,7 @@
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="172" t="str">
         <f>Deposits!E11</f>
-        <v>obj_005ff#0000</v>
+        <v>obj_005e6#0000</v>
       </c>
       <c r="C10" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B10)</f>
@@ -2838,7 +2839,7 @@
       </c>
       <c r="D10" s="174">
         <f>_xll.qlRateHelperQuoteValue($B10,Trigger)</f>
-        <v>8.9999999999999998E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="E10" s="174"/>
       <c r="F10" s="175" t="b">
@@ -2852,18 +2853,18 @@
       </c>
       <c r="I10" s="176">
         <f>_xll.qlRateHelperEarliestDate($B10,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J10" s="177">
         <f>_xll.qlRateHelperLatestDate($B10,Trigger)</f>
-        <v>42038</v>
+        <v>42149</v>
       </c>
       <c r="O10" s="9"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="172" t="str">
         <f>Deposits!E12</f>
-        <v>obj_00604#0000</v>
+        <v>obj_005ee#0000</v>
       </c>
       <c r="C11" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B11)</f>
@@ -2871,7 +2872,7 @@
       </c>
       <c r="D11" s="174">
         <f>_xll.qlRateHelperQuoteValue($B11,Trigger)</f>
-        <v>1.1999999999999999E-3</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="E11" s="174"/>
       <c r="F11" s="175" t="b">
@@ -2885,11 +2886,11 @@
       </c>
       <c r="I11" s="176">
         <f>_xll.qlRateHelperEarliestDate($B11,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J11" s="177">
         <f>_xll.qlRateHelperLatestDate($B11,Trigger)</f>
-        <v>42066</v>
+        <v>42180</v>
       </c>
       <c r="M11" s="8"/>
       <c r="O11" s="9"/>
@@ -2897,7 +2898,7 @@
     <row r="12" spans="2:15" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="172" t="str">
         <f>Deposits!E13</f>
-        <v>obj_00613#0000</v>
+        <v>obj_005ef#0000</v>
       </c>
       <c r="C12" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B12)</f>
@@ -2905,7 +2906,7 @@
       </c>
       <c r="D12" s="174">
         <f>_xll.qlRateHelperQuoteValue($B12,Trigger)</f>
-        <v>1.6000000000000001E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="E12" s="174"/>
       <c r="F12" s="175" t="b">
@@ -2919,11 +2920,11 @@
       </c>
       <c r="I12" s="176">
         <f>_xll.qlRateHelperEarliestDate($B12,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J12" s="177">
         <f>_xll.qlRateHelperLatestDate($B12,Trigger)</f>
-        <v>42101</v>
+        <v>42212</v>
       </c>
       <c r="M12" s="8"/>
       <c r="O12" s="9"/>
@@ -2931,7 +2932,7 @@
     <row r="13" spans="2:15" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="172" t="str">
         <f>Deposits!E14</f>
-        <v>obj_0060b#0000</v>
+        <v>obj_005da#0000</v>
       </c>
       <c r="C13" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B13)</f>
@@ -2939,7 +2940,7 @@
       </c>
       <c r="D13" s="174">
         <f>_xll.qlRateHelperQuoteValue($B13,Trigger)</f>
-        <v>1.9E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="E13" s="174"/>
       <c r="F13" s="175" t="b">
@@ -2953,11 +2954,11 @@
       </c>
       <c r="I13" s="176">
         <f>_xll.qlRateHelperEarliestDate($B13,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J13" s="177">
         <f>_xll.qlRateHelperLatestDate($B13,Trigger)</f>
-        <v>42128</v>
+        <v>42241</v>
       </c>
       <c r="M13" s="8"/>
       <c r="O13" s="9"/>
@@ -2965,7 +2966,7 @@
     <row r="14" spans="2:15" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="172" t="str">
         <f>Deposits!E15</f>
-        <v>obj_00607#0000</v>
+        <v>obj_005e4#0000</v>
       </c>
       <c r="C14" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B14)</f>
@@ -2973,7 +2974,7 @@
       </c>
       <c r="D14" s="174">
         <f>_xll.qlRateHelperQuoteValue($B14,Trigger)</f>
-        <v>2.0999999999999999E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="E14" s="174"/>
       <c r="F14" s="175" t="b">
@@ -2987,11 +2988,11 @@
       </c>
       <c r="I14" s="176">
         <f>_xll.qlRateHelperEarliestDate($B14,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J14" s="177">
         <f>_xll.qlRateHelperLatestDate($B14,Trigger)</f>
-        <v>42158</v>
+        <v>42272</v>
       </c>
       <c r="M14" s="8"/>
       <c r="O14" s="9"/>
@@ -2999,7 +3000,7 @@
     <row r="15" spans="2:15" s="63" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="172" t="str">
         <f>Deposits!E16</f>
-        <v>obj_00612#0000</v>
+        <v>obj_005ed#0000</v>
       </c>
       <c r="C15" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B15)</f>
@@ -3007,7 +3008,7 @@
       </c>
       <c r="D15" s="174">
         <f>_xll.qlRateHelperQuoteValue($B15,Trigger)</f>
-        <v>2.3999999999999998E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="E15" s="174"/>
       <c r="F15" s="175" t="b">
@@ -3021,11 +3022,11 @@
       </c>
       <c r="I15" s="176">
         <f>_xll.qlRateHelperEarliestDate($B15,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J15" s="177">
         <f>_xll.qlRateHelperLatestDate($B15,Trigger)</f>
-        <v>42188</v>
+        <v>42303</v>
       </c>
       <c r="M15" s="8"/>
       <c r="O15" s="9"/>
@@ -3033,7 +3034,7 @@
     <row r="16" spans="2:15" s="63" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="172" t="str">
         <f>Deposits!E17</f>
-        <v>obj_0060c#0000</v>
+        <v>obj_005dc#0000</v>
       </c>
       <c r="C16" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B16)</f>
@@ -3041,7 +3042,7 @@
       </c>
       <c r="D16" s="174">
         <f>_xll.qlRateHelperQuoteValue($B16,Trigger)</f>
-        <v>2.7000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="E16" s="174"/>
       <c r="F16" s="175" t="b">
@@ -3055,11 +3056,11 @@
       </c>
       <c r="I16" s="176">
         <f>_xll.qlRateHelperEarliestDate($B16,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J16" s="177">
         <f>_xll.qlRateHelperLatestDate($B16,Trigger)</f>
-        <v>42219</v>
+        <v>42333</v>
       </c>
       <c r="M16" s="8"/>
       <c r="O16" s="9"/>
@@ -3067,7 +3068,7 @@
     <row r="17" spans="1:15" s="63" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="172" t="str">
         <f>Deposits!E18</f>
-        <v>obj_00609#0000</v>
+        <v>obj_005ec#0000</v>
       </c>
       <c r="C17" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B17)</f>
@@ -3075,7 +3076,7 @@
       </c>
       <c r="D17" s="174">
         <f>_xll.qlRateHelperQuoteValue($B17,Trigger)</f>
-        <v>3.0000000000000001E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="E17" s="174"/>
       <c r="F17" s="175" t="b">
@@ -3089,11 +3090,11 @@
       </c>
       <c r="I17" s="176">
         <f>_xll.qlRateHelperEarliestDate($B17,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J17" s="177">
         <f>_xll.qlRateHelperLatestDate($B17,Trigger)</f>
-        <v>42250</v>
+        <v>42366</v>
       </c>
       <c r="M17" s="8"/>
       <c r="O17" s="9"/>
@@ -3101,7 +3102,7 @@
     <row r="18" spans="1:15" s="63" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="172" t="str">
         <f>Deposits!E19</f>
-        <v>obj_00610#0000</v>
+        <v>obj_005eb#0000</v>
       </c>
       <c r="C18" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B18)</f>
@@ -3109,7 +3110,7 @@
       </c>
       <c r="D18" s="174">
         <f>_xll.qlRateHelperQuoteValue($B18,Trigger)</f>
-        <v>3.3E-3</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="E18" s="174"/>
       <c r="F18" s="175" t="b">
@@ -3123,11 +3124,11 @@
       </c>
       <c r="I18" s="176">
         <f>_xll.qlRateHelperEarliestDate($B18,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J18" s="177">
         <f>_xll.qlRateHelperLatestDate($B18,Trigger)</f>
-        <v>42282</v>
+        <v>42394</v>
       </c>
       <c r="M18" s="8"/>
       <c r="O18" s="9"/>
@@ -3135,7 +3136,7 @@
     <row r="19" spans="1:15" s="196" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="172" t="str">
         <f>Deposits!E20</f>
-        <v>obj_00614#0000</v>
+        <v>obj_005f1#0000</v>
       </c>
       <c r="C19" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B19)</f>
@@ -3143,7 +3144,7 @@
       </c>
       <c r="D19" s="174">
         <f>_xll.qlRateHelperQuoteValue($B19,Trigger)</f>
-        <v>3.5999999999999999E-3</v>
+        <v>2.7999999999999995E-3</v>
       </c>
       <c r="E19" s="174"/>
       <c r="F19" s="175" t="b">
@@ -3157,11 +3158,11 @@
       </c>
       <c r="I19" s="176">
         <f>_xll.qlRateHelperEarliestDate($B19,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J19" s="177">
         <f>_xll.qlRateHelperLatestDate($B19,Trigger)</f>
-        <v>42311</v>
+        <v>42425</v>
       </c>
       <c r="M19" s="8"/>
       <c r="O19" s="9"/>
@@ -3169,7 +3170,7 @@
     <row r="20" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="178" t="str">
         <f>Deposits!E21</f>
-        <v>obj_005fb#0000</v>
+        <v>obj_005d8#0001</v>
       </c>
       <c r="C20" s="179" t="str">
         <f>_xll.qlRateHelperQuoteName(B20)</f>
@@ -3177,7 +3178,7 @@
       </c>
       <c r="D20" s="180">
         <f>_xll.qlRateHelperQuoteValue($B20,Trigger)</f>
-        <v>2.378125E-3</v>
+        <v>1.4709677400000002E-3</v>
       </c>
       <c r="E20" s="180"/>
       <c r="F20" s="181" t="b">
@@ -3192,11 +3193,11 @@
       </c>
       <c r="I20" s="182">
         <f>_xll.qlRateHelperEarliestDate($B20,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J20" s="183">
         <f>_xll.qlRateHelperLatestDate($B20,Trigger)</f>
-        <v>42172</v>
+        <v>42263</v>
       </c>
       <c r="O20" s="9"/>
     </row>
@@ -3204,19 +3205,19 @@
       <c r="A21" s="6"/>
       <c r="B21" s="166" t="str">
         <f>Futures!H3</f>
-        <v>obj_0065a#0000</v>
+        <v>obj_00635#0000</v>
       </c>
       <c r="C21" s="167" t="str">
         <f>_xll.qlRateHelperQuoteName(B21)</f>
-        <v>EURFUT3MX4_Quote</v>
-      </c>
-      <c r="D21" s="184">
+        <v>EURFUT3MH5_Quote</v>
+      </c>
+      <c r="D21" s="184" t="e">
         <f>_xll.qlRateHelperQuoteValue($B21,Trigger)</f>
-        <v>99.902500000000003</v>
-      </c>
-      <c r="E21" s="168">
+        <v>#NUM!</v>
+      </c>
+      <c r="E21" s="168" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B21,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="F21" s="169" t="b">
         <v>0</v>
@@ -3229,26 +3230,26 @@
       </c>
       <c r="I21" s="170">
         <f>_xll.qlRateHelperEarliestDate($B21,Trigger)</f>
-        <v>41962</v>
+        <v>42081</v>
       </c>
       <c r="J21" s="171">
         <f>_xll.qlRateHelperLatestDate($B21,Trigger)</f>
-        <v>42054</v>
+        <v>42173</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="172" t="str">
         <f>Futures!H4</f>
-        <v>obj_00626#0000</v>
+        <v>obj_005f5#0000</v>
       </c>
       <c r="C22" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B22)</f>
-        <v>EURFUT3MZ4_Quote</v>
+        <v>EURFUT3MJ5_Quote</v>
       </c>
       <c r="D22" s="185">
         <f>_xll.qlRateHelperQuoteValue($B22,Trigger)</f>
-        <v>99.892499999999998</v>
+        <v>99.962500000000006</v>
       </c>
       <c r="E22" s="174">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B22,Trigger)</f>
@@ -3265,30 +3266,30 @@
       </c>
       <c r="I22" s="176">
         <f>_xll.qlRateHelperEarliestDate($B22,Trigger)</f>
-        <v>41990</v>
+        <v>42109</v>
       </c>
       <c r="J22" s="177">
         <f>_xll.qlRateHelperLatestDate($B22,Trigger)</f>
-        <v>42080</v>
+        <v>42200</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="172" t="str">
         <f>Futures!H5</f>
-        <v>obj_00621#0000</v>
+        <v>obj_0062d#0000</v>
       </c>
       <c r="C23" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B23)</f>
-        <v>EURFUT3MF5_Quote</v>
-      </c>
-      <c r="D23" s="185" t="e">
+        <v>EURFUT3MK5_Quote</v>
+      </c>
+      <c r="D23" s="185">
         <f>_xll.qlRateHelperQuoteValue($B23,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E23" s="174" t="e">
+        <v>99.972499999999997</v>
+      </c>
+      <c r="E23" s="174">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B23,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="F23" s="175" t="b">
         <v>0</v>
@@ -3301,22 +3302,22 @@
       </c>
       <c r="I23" s="176">
         <f>_xll.qlRateHelperEarliestDate($B23,Trigger)</f>
-        <v>42025</v>
+        <v>42144</v>
       </c>
       <c r="J23" s="177">
         <f>_xll.qlRateHelperLatestDate($B23,Trigger)</f>
-        <v>42115</v>
+        <v>42236</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="172" t="str">
         <f>Futures!H6</f>
-        <v>obj_00639#0000</v>
+        <v>obj_0061d#0000</v>
       </c>
       <c r="C24" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B24)</f>
-        <v>EURFUT3MG5_Quote</v>
+        <v>EURFUT3MM5_Quote</v>
       </c>
       <c r="D24" s="185" t="e">
         <f>_xll.qlRateHelperQuoteValue($B24,Trigger)</f>
@@ -3337,30 +3338,30 @@
       </c>
       <c r="I24" s="176">
         <f>_xll.qlRateHelperEarliestDate($B24,Trigger)</f>
-        <v>42053</v>
+        <v>42172</v>
       </c>
       <c r="J24" s="177">
         <f>_xll.qlRateHelperLatestDate($B24,Trigger)</f>
-        <v>42142</v>
+        <v>42264</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="172" t="str">
         <f>Futures!H7</f>
-        <v>obj_00656#0000</v>
+        <v>obj_00640#0000</v>
       </c>
       <c r="C25" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B25)</f>
-        <v>EURFUT3MH5_Quote</v>
-      </c>
-      <c r="D25" s="185">
+        <v>EURFUT3MN5_Quote</v>
+      </c>
+      <c r="D25" s="185" t="e">
         <f>_xll.qlRateHelperQuoteValue($B25,Trigger)</f>
-        <v>99.892499999999998</v>
-      </c>
-      <c r="E25" s="174">
+        <v>#NUM!</v>
+      </c>
+      <c r="E25" s="174" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B25,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="F25" s="175" t="b">
         <v>0</v>
@@ -3373,30 +3374,30 @@
       </c>
       <c r="I25" s="176">
         <f>_xll.qlRateHelperEarliestDate($B25,Trigger)</f>
-        <v>42081</v>
+        <v>42200</v>
       </c>
       <c r="J25" s="177">
         <f>_xll.qlRateHelperLatestDate($B25,Trigger)</f>
-        <v>42173</v>
+        <v>42292</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="172" t="str">
         <f>Futures!H8</f>
-        <v>obj_00632#0000</v>
+        <v>obj_00637#0000</v>
       </c>
       <c r="C26" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B26)</f>
-        <v>EURFUT3MJ5_Quote</v>
-      </c>
-      <c r="D26" s="185" t="e">
+        <v>EURFUT3MQ5_Quote</v>
+      </c>
+      <c r="D26" s="185">
         <f>_xll.qlRateHelperQuoteValue($B26,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E26" s="174" t="e">
+        <v>99.987499999999997</v>
+      </c>
+      <c r="E26" s="174">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B26,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="F26" s="175" t="b">
         <v>0</v>
@@ -3409,22 +3410,22 @@
       </c>
       <c r="I26" s="176">
         <f>_xll.qlRateHelperEarliestDate($B26,Trigger)</f>
-        <v>42109</v>
+        <v>42235</v>
       </c>
       <c r="J26" s="177">
         <f>_xll.qlRateHelperLatestDate($B26,Trigger)</f>
-        <v>42200</v>
+        <v>42327</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="172" t="str">
         <f>Futures!H9</f>
-        <v>obj_00655#0000</v>
+        <v>obj_00606#0000</v>
       </c>
       <c r="C27" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B27)</f>
-        <v>EURFUT3MK5_Quote</v>
+        <v>EURFUT3MU5_Quote</v>
       </c>
       <c r="D27" s="185" t="e">
         <f>_xll.qlRateHelperQuoteValue($B27,Trigger)</f>
@@ -3445,30 +3446,30 @@
       </c>
       <c r="I27" s="176">
         <f>_xll.qlRateHelperEarliestDate($B27,Trigger)</f>
-        <v>42144</v>
+        <v>42263</v>
       </c>
       <c r="J27" s="177">
         <f>_xll.qlRateHelperLatestDate($B27,Trigger)</f>
-        <v>42236</v>
+        <v>42354</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="172" t="str">
         <f>Futures!H10</f>
-        <v>obj_0065b#0000</v>
+        <v>obj_00639#0000</v>
       </c>
       <c r="C28" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B28)</f>
-        <v>EURFUT3MM5_Quote</v>
-      </c>
-      <c r="D28" s="185">
+        <v>EURFUT3MV5_Quote</v>
+      </c>
+      <c r="D28" s="185" t="e">
         <f>_xll.qlRateHelperQuoteValue($B28,Trigger)</f>
-        <v>99.902500000000003</v>
-      </c>
-      <c r="E28" s="174">
+        <v>#NUM!</v>
+      </c>
+      <c r="E28" s="174" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B28,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="F28" s="175" t="b">
         <v>1</v>
@@ -3481,30 +3482,30 @@
       </c>
       <c r="I28" s="176">
         <f>_xll.qlRateHelperEarliestDate($B28,Trigger)</f>
-        <v>42172</v>
+        <v>42298</v>
       </c>
       <c r="J28" s="177">
         <f>_xll.qlRateHelperLatestDate($B28,Trigger)</f>
-        <v>42264</v>
+        <v>42390</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="172" t="str">
         <f>Futures!H11</f>
-        <v>obj_00634#0000</v>
+        <v>obj_00608#0000</v>
       </c>
       <c r="C29" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B29)</f>
-        <v>EURFUT3MN5_Quote</v>
-      </c>
-      <c r="D29" s="185" t="e">
+        <v>EURFUT3MX5_Quote</v>
+      </c>
+      <c r="D29" s="185">
         <f>_xll.qlRateHelperQuoteValue($B29,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E29" s="174" t="e">
+        <v>99.992500000000007</v>
+      </c>
+      <c r="E29" s="174">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B29,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="F29" s="175" t="b">
         <v>1</v>
@@ -3517,22 +3518,22 @@
       </c>
       <c r="I29" s="176">
         <f>_xll.qlRateHelperEarliestDate($B29,Trigger)</f>
-        <v>42200</v>
+        <v>42326</v>
       </c>
       <c r="J29" s="177">
         <f>_xll.qlRateHelperLatestDate($B29,Trigger)</f>
-        <v>42292</v>
+        <v>42418</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="172" t="str">
         <f>Futures!H12</f>
-        <v>obj_00660#0000</v>
+        <v>obj_00615#0000</v>
       </c>
       <c r="C30" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B30)</f>
-        <v>EURFUT3MQ5_Quote</v>
+        <v>EURFUT3MZ5_Quote</v>
       </c>
       <c r="D30" s="185" t="e">
         <f>_xll.qlRateHelperQuoteValue($B30,Trigger)</f>
@@ -3553,30 +3554,30 @@
       </c>
       <c r="I30" s="176">
         <f>_xll.qlRateHelperEarliestDate($B30,Trigger)</f>
-        <v>42235</v>
+        <v>42354</v>
       </c>
       <c r="J30" s="177">
         <f>_xll.qlRateHelperLatestDate($B30,Trigger)</f>
-        <v>42327</v>
+        <v>42445</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="172" t="str">
         <f>Futures!H13</f>
-        <v>obj_0064c#0000</v>
+        <v>obj_00634#0000</v>
       </c>
       <c r="C31" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B31)</f>
-        <v>EURFUT3MU5_Quote</v>
-      </c>
-      <c r="D31" s="185">
+        <v>EURFUT3MF6_Quote</v>
+      </c>
+      <c r="D31" s="185" t="e">
         <f>_xll.qlRateHelperQuoteValue($B31,Trigger)</f>
-        <v>99.897500000000008</v>
-      </c>
-      <c r="E31" s="174">
+        <v>#NUM!</v>
+      </c>
+      <c r="E31" s="174" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B31,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="F31" s="175" t="b">
         <v>1</v>
@@ -3589,30 +3590,30 @@
       </c>
       <c r="I31" s="176">
         <f>_xll.qlRateHelperEarliestDate($B31,Trigger)</f>
-        <v>42263</v>
+        <v>42389</v>
       </c>
       <c r="J31" s="177">
         <f>_xll.qlRateHelperLatestDate($B31,Trigger)</f>
-        <v>42354</v>
+        <v>42480</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="172" t="str">
         <f>Futures!H14</f>
-        <v>obj_00619#0000</v>
+        <v>obj_0060f#0000</v>
       </c>
       <c r="C32" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B32)</f>
-        <v>EURFUT3MV5_Quote</v>
-      </c>
-      <c r="D32" s="185" t="e">
+        <v>EURFUT3MG6_Quote</v>
+      </c>
+      <c r="D32" s="185">
         <f>_xll.qlRateHelperQuoteValue($B32,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E32" s="174" t="e">
+        <v>99.992500000000007</v>
+      </c>
+      <c r="E32" s="174">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B32,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="F32" s="175" t="b">
         <v>1</v>
@@ -3625,26 +3626,26 @@
       </c>
       <c r="I32" s="176">
         <f>_xll.qlRateHelperEarliestDate($B32,Trigger)</f>
-        <v>42298</v>
+        <v>42417</v>
       </c>
       <c r="J32" s="177">
         <f>_xll.qlRateHelperLatestDate($B32,Trigger)</f>
-        <v>42390</v>
+        <v>42507</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="172" t="str">
         <f>Futures!H15</f>
-        <v>obj_00622#0000</v>
+        <v>obj_00632#0000</v>
       </c>
       <c r="C33" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B33)</f>
-        <v>EURFUT3MZ5_Quote</v>
+        <v>EURFUT3MH6_Quote</v>
       </c>
       <c r="D33" s="185">
         <f>_xll.qlRateHelperQuoteValue($B33,Trigger)</f>
-        <v>99.877499999999998</v>
+        <v>99.982500000000002</v>
       </c>
       <c r="E33" s="174">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B33,Trigger)</f>
@@ -3661,26 +3662,26 @@
       </c>
       <c r="I33" s="176">
         <f>_xll.qlRateHelperEarliestDate($B33,Trigger)</f>
-        <v>42354</v>
+        <v>42445</v>
       </c>
       <c r="J33" s="177">
         <f>_xll.qlRateHelperLatestDate($B33,Trigger)</f>
-        <v>42445</v>
+        <v>42537</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="172" t="str">
         <f>Futures!H16</f>
-        <v>obj_0063c#0000</v>
+        <v>obj_005f8#0000</v>
       </c>
       <c r="C34" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B34)</f>
-        <v>EURFUT3MH6_Quote</v>
+        <v>EURFUT3MM6_Quote</v>
       </c>
       <c r="D34" s="185">
         <f>_xll.qlRateHelperQuoteValue($B34,Trigger)</f>
-        <v>99.852499999999992</v>
+        <v>99.962500000000006</v>
       </c>
       <c r="E34" s="174">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B34,Trigger)</f>
@@ -3697,26 +3698,26 @@
       </c>
       <c r="I34" s="176">
         <f>_xll.qlRateHelperEarliestDate($B34,Trigger)</f>
-        <v>42445</v>
+        <v>42536</v>
       </c>
       <c r="J34" s="177">
         <f>_xll.qlRateHelperLatestDate($B34,Trigger)</f>
-        <v>42537</v>
+        <v>42628</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="172" t="str">
         <f>Futures!H17</f>
-        <v>obj_00618#0000</v>
+        <v>obj_005fe#0000</v>
       </c>
       <c r="C35" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B35)</f>
-        <v>EURFUT3MM6_Quote</v>
+        <v>EURFUT3MU6_Quote</v>
       </c>
       <c r="D35" s="185">
         <f>_xll.qlRateHelperQuoteValue($B35,Trigger)</f>
-        <v>99.827500000000001</v>
+        <v>99.942499999999995</v>
       </c>
       <c r="E35" s="174">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B35,Trigger)</f>
@@ -3733,26 +3734,26 @@
       </c>
       <c r="I35" s="176">
         <f>_xll.qlRateHelperEarliestDate($B35,Trigger)</f>
-        <v>42536</v>
+        <v>42634</v>
       </c>
       <c r="J35" s="177">
         <f>_xll.qlRateHelperLatestDate($B35,Trigger)</f>
-        <v>42628</v>
+        <v>42725</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="172" t="str">
         <f>Futures!H18</f>
-        <v>obj_0062c#0000</v>
+        <v>obj_0063e#0000</v>
       </c>
       <c r="C36" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B36)</f>
-        <v>EURFUT3MU6_Quote</v>
+        <v>EURFUT3MZ6_Quote</v>
       </c>
       <c r="D36" s="185">
         <f>_xll.qlRateHelperQuoteValue($B36,Trigger)</f>
-        <v>99.795000000000002</v>
+        <v>99.917500000000004</v>
       </c>
       <c r="E36" s="174">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B36,Trigger)</f>
@@ -3769,26 +3770,26 @@
       </c>
       <c r="I36" s="176">
         <f>_xll.qlRateHelperEarliestDate($B36,Trigger)</f>
-        <v>42634</v>
+        <v>42725</v>
       </c>
       <c r="J36" s="177">
         <f>_xll.qlRateHelperLatestDate($B36,Trigger)</f>
-        <v>42725</v>
+        <v>42815</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="172" t="str">
         <f>Futures!H19</f>
-        <v>obj_00641#0000</v>
+        <v>obj_00624#0000</v>
       </c>
       <c r="C37" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B37)</f>
-        <v>EURFUT3MZ6_Quote</v>
+        <v>EURFUT3MH7_Quote</v>
       </c>
       <c r="D37" s="185">
         <f>_xll.qlRateHelperQuoteValue($B37,Trigger)</f>
-        <v>99.762500000000003</v>
+        <v>99.892499999999998</v>
       </c>
       <c r="E37" s="174">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B37,Trigger)</f>
@@ -3805,26 +3806,26 @@
       </c>
       <c r="I37" s="176">
         <f>_xll.qlRateHelperEarliestDate($B37,Trigger)</f>
-        <v>42725</v>
+        <v>42809</v>
       </c>
       <c r="J37" s="177">
         <f>_xll.qlRateHelperLatestDate($B37,Trigger)</f>
-        <v>42815</v>
+        <v>42901</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="172" t="str">
         <f>Futures!H20</f>
-        <v>obj_0061d#0000</v>
+        <v>obj_00623#0000</v>
       </c>
       <c r="C38" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B38)</f>
-        <v>EURFUT3MH7_Quote</v>
+        <v>EURFUT3MM7_Quote</v>
       </c>
       <c r="D38" s="185">
         <f>_xll.qlRateHelperQuoteValue($B38,Trigger)</f>
-        <v>99.722499999999997</v>
+        <v>99.862499999999997</v>
       </c>
       <c r="E38" s="174">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B38,Trigger)</f>
@@ -3841,26 +3842,26 @@
       </c>
       <c r="I38" s="176">
         <f>_xll.qlRateHelperEarliestDate($B38,Trigger)</f>
-        <v>42809</v>
+        <v>42907</v>
       </c>
       <c r="J38" s="177">
         <f>_xll.qlRateHelperLatestDate($B38,Trigger)</f>
-        <v>42901</v>
+        <v>42999</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="172" t="str">
         <f>Futures!H21</f>
-        <v>obj_0065d#0000</v>
+        <v>obj_0060a#0000</v>
       </c>
       <c r="C39" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B39)</f>
-        <v>EURFUT3MM7_Quote</v>
+        <v>EURFUT3MU7_Quote</v>
       </c>
       <c r="D39" s="185">
         <f>_xll.qlRateHelperQuoteValue($B39,Trigger)</f>
-        <v>99.675000000000011</v>
+        <v>99.827500000000001</v>
       </c>
       <c r="E39" s="174">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B39,Trigger)</f>
@@ -3877,26 +3878,26 @@
       </c>
       <c r="I39" s="176">
         <f>_xll.qlRateHelperEarliestDate($B39,Trigger)</f>
-        <v>42907</v>
+        <v>42998</v>
       </c>
       <c r="J39" s="177">
         <f>_xll.qlRateHelperLatestDate($B39,Trigger)</f>
-        <v>42999</v>
+        <v>43089</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="172" t="str">
         <f>Futures!H22</f>
-        <v>obj_00664#0000</v>
+        <v>obj_0062b#0000</v>
       </c>
       <c r="C40" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B40)</f>
-        <v>EURFUT3MU7_Quote</v>
+        <v>EURFUT3MZ7_Quote</v>
       </c>
       <c r="D40" s="185">
         <f>_xll.qlRateHelperQuoteValue($B40,Trigger)</f>
-        <v>99.622500000000002</v>
+        <v>99.787499999999994</v>
       </c>
       <c r="E40" s="174">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B40,Trigger)</f>
@@ -3913,26 +3914,26 @@
       </c>
       <c r="I40" s="176">
         <f>_xll.qlRateHelperEarliestDate($B40,Trigger)</f>
-        <v>42998</v>
+        <v>43089</v>
       </c>
       <c r="J40" s="177">
         <f>_xll.qlRateHelperLatestDate($B40,Trigger)</f>
-        <v>43089</v>
+        <v>43179</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="172" t="str">
         <f>Futures!H23</f>
-        <v>obj_00652#0000</v>
+        <v>obj_0062f#0000</v>
       </c>
       <c r="C41" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B41)</f>
-        <v>EURFUT3MZ7_Quote</v>
+        <v>EURFUT3MH8_Quote</v>
       </c>
       <c r="D41" s="185">
         <f>_xll.qlRateHelperQuoteValue($B41,Trigger)</f>
-        <v>99.5625</v>
+        <v>99.747500000000002</v>
       </c>
       <c r="E41" s="174">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B41,Trigger)</f>
@@ -3949,26 +3950,26 @@
       </c>
       <c r="I41" s="176">
         <f>_xll.qlRateHelperEarliestDate($B41,Trigger)</f>
-        <v>43089</v>
+        <v>43180</v>
       </c>
       <c r="J41" s="177">
         <f>_xll.qlRateHelperLatestDate($B41,Trigger)</f>
-        <v>43179</v>
+        <v>43272</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="172" t="str">
         <f>Futures!H24</f>
-        <v>obj_0062f#0000</v>
+        <v>obj_00612#0000</v>
       </c>
       <c r="C42" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B42)</f>
-        <v>EURFUT3MH8_Quote</v>
+        <v>EURFUT3MM8_Quote</v>
       </c>
       <c r="D42" s="185">
         <f>_xll.qlRateHelperQuoteValue($B42,Trigger)</f>
-        <v>99.502499999999998</v>
+        <v>99.697499999999991</v>
       </c>
       <c r="E42" s="174">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B42,Trigger)</f>
@@ -3985,26 +3986,26 @@
       </c>
       <c r="I42" s="176">
         <f>_xll.qlRateHelperEarliestDate($B42,Trigger)</f>
-        <v>43180</v>
+        <v>43271</v>
       </c>
       <c r="J42" s="177">
         <f>_xll.qlRateHelperLatestDate($B42,Trigger)</f>
-        <v>43272</v>
+        <v>43363</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="172" t="str">
         <f>Futures!H25</f>
-        <v>obj_0063e#0000</v>
+        <v>obj_00627#0000</v>
       </c>
       <c r="C43" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B43)</f>
-        <v>EURFUT3MM8_Quote</v>
+        <v>EURFUT3MU8_Quote</v>
       </c>
       <c r="D43" s="185">
         <f>_xll.qlRateHelperQuoteValue($B43,Trigger)</f>
-        <v>99.442499999999995</v>
+        <v>99.655000000000001</v>
       </c>
       <c r="E43" s="174">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B43,Trigger)</f>
@@ -4021,26 +4022,26 @@
       </c>
       <c r="I43" s="176">
         <f>_xll.qlRateHelperEarliestDate($B43,Trigger)</f>
-        <v>43271</v>
+        <v>43362</v>
       </c>
       <c r="J43" s="177">
         <f>_xll.qlRateHelperLatestDate($B43,Trigger)</f>
-        <v>43363</v>
+        <v>43453</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="172" t="str">
         <f>Futures!H26</f>
-        <v>obj_00653#0000</v>
+        <v>obj_0061e#0000</v>
       </c>
       <c r="C44" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B44)</f>
-        <v>EURFUT3MU8_Quote</v>
+        <v>EURFUT3MZ8_Quote</v>
       </c>
       <c r="D44" s="185">
         <f>_xll.qlRateHelperQuoteValue($B44,Trigger)</f>
-        <v>99.38</v>
+        <v>99.607500000000002</v>
       </c>
       <c r="E44" s="174">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B44,Trigger)</f>
@@ -4057,26 +4058,26 @@
       </c>
       <c r="I44" s="176">
         <f>_xll.qlRateHelperEarliestDate($B44,Trigger)</f>
-        <v>43362</v>
+        <v>43453</v>
       </c>
       <c r="J44" s="177">
         <f>_xll.qlRateHelperLatestDate($B44,Trigger)</f>
-        <v>43453</v>
+        <v>43543</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="172" t="str">
         <f>Futures!H27</f>
-        <v>obj_0063b#0000</v>
+        <v>obj_0063f#0000</v>
       </c>
       <c r="C45" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B45)</f>
-        <v>EURFUT3MZ8_Quote</v>
+        <v>EURFUT3MH9_Quote</v>
       </c>
       <c r="D45" s="185">
         <f>_xll.qlRateHelperQuoteValue($B45,Trigger)</f>
-        <v>99.31</v>
+        <v>99.56</v>
       </c>
       <c r="E45" s="174">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B45,Trigger)</f>
@@ -4093,26 +4094,26 @@
       </c>
       <c r="I45" s="176">
         <f>_xll.qlRateHelperEarliestDate($B45,Trigger)</f>
-        <v>43453</v>
+        <v>43544</v>
       </c>
       <c r="J45" s="177">
         <f>_xll.qlRateHelperLatestDate($B45,Trigger)</f>
-        <v>43543</v>
+        <v>43636</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="172" t="str">
         <f>Futures!H28</f>
-        <v>obj_00646#0000</v>
+        <v>obj_00619#0000</v>
       </c>
       <c r="C46" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B46)</f>
-        <v>EURFUT3MH9_Quote</v>
+        <v>EURFUT3MM9_Quote</v>
       </c>
       <c r="D46" s="185">
         <f>_xll.qlRateHelperQuoteValue($B46,Trigger)</f>
-        <v>99.234999999999999</v>
+        <v>99.507499999999993</v>
       </c>
       <c r="E46" s="174">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B46,Trigger)</f>
@@ -4129,26 +4130,26 @@
       </c>
       <c r="I46" s="176">
         <f>_xll.qlRateHelperEarliestDate($B46,Trigger)</f>
-        <v>43544</v>
+        <v>43635</v>
       </c>
       <c r="J46" s="177">
         <f>_xll.qlRateHelperLatestDate($B46,Trigger)</f>
-        <v>43636</v>
+        <v>43727</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="172" t="str">
         <f>Futures!H29</f>
-        <v>obj_0064b#0000</v>
+        <v>obj_0061a#0000</v>
       </c>
       <c r="C47" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B47)</f>
-        <v>EURFUT3MM9_Quote</v>
+        <v>EURFUT3MU9_Quote</v>
       </c>
       <c r="D47" s="185">
         <f>_xll.qlRateHelperQuoteValue($B47,Trigger)</f>
-        <v>99.152500000000003</v>
+        <v>99.449999999999989</v>
       </c>
       <c r="E47" s="174">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B47,Trigger)</f>
@@ -4165,26 +4166,26 @@
       </c>
       <c r="I47" s="176">
         <f>_xll.qlRateHelperEarliestDate($B47,Trigger)</f>
-        <v>43635</v>
+        <v>43726</v>
       </c>
       <c r="J47" s="177">
         <f>_xll.qlRateHelperLatestDate($B47,Trigger)</f>
-        <v>43727</v>
+        <v>43817</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="172" t="str">
         <f>Futures!H30</f>
-        <v>obj_0061c#0000</v>
+        <v>obj_00620#0000</v>
       </c>
       <c r="C48" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B48)</f>
-        <v>EURFUT3MU9_Quote</v>
+        <v>EURFUT3MZ9_Quote</v>
       </c>
       <c r="D48" s="185">
         <f>_xll.qlRateHelperQuoteValue($B48,Trigger)</f>
-        <v>99.0625</v>
+        <v>99.39</v>
       </c>
       <c r="E48" s="174">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B48,Trigger)</f>
@@ -4201,26 +4202,26 @@
       </c>
       <c r="I48" s="176">
         <f>_xll.qlRateHelperEarliestDate($B48,Trigger)</f>
-        <v>43726</v>
+        <v>43817</v>
       </c>
       <c r="J48" s="177">
         <f>_xll.qlRateHelperLatestDate($B48,Trigger)</f>
-        <v>43817</v>
+        <v>43908</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="172" t="str">
         <f>Futures!H31</f>
-        <v>obj_0065f#0000</v>
+        <v>obj_0060e#0000</v>
       </c>
       <c r="C49" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B49)</f>
-        <v>EURFUT3MZ9_Quote</v>
+        <v>EURFUT3MH0_Quote</v>
       </c>
       <c r="D49" s="185">
         <f>_xll.qlRateHelperQuoteValue($B49,Trigger)</f>
-        <v>98.977499999999992</v>
+        <v>99.335000000000008</v>
       </c>
       <c r="E49" s="174">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B49,Trigger)</f>
@@ -4237,26 +4238,26 @@
       </c>
       <c r="I49" s="176">
         <f>_xll.qlRateHelperEarliestDate($B49,Trigger)</f>
-        <v>43817</v>
+        <v>43908</v>
       </c>
       <c r="J49" s="177">
         <f>_xll.qlRateHelperLatestDate($B49,Trigger)</f>
-        <v>43908</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="172" t="str">
         <f>Futures!H32</f>
-        <v>obj_00629#0000</v>
+        <v>obj_0061c#0000</v>
       </c>
       <c r="C50" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B50)</f>
-        <v>EURFUT3MH0_Quote</v>
+        <v>EURFUT3MM0_Quote</v>
       </c>
       <c r="D50" s="185">
         <f>_xll.qlRateHelperQuoteValue($B50,Trigger)</f>
-        <v>98.89</v>
+        <v>99.28</v>
       </c>
       <c r="E50" s="174">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B50,Trigger)</f>
@@ -4273,26 +4274,26 @@
       </c>
       <c r="I50" s="176">
         <f>_xll.qlRateHelperEarliestDate($B50,Trigger)</f>
-        <v>43908</v>
+        <v>43999</v>
       </c>
       <c r="J50" s="177">
         <f>_xll.qlRateHelperLatestDate($B50,Trigger)</f>
-        <v>44000</v>
+        <v>44091</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="172" t="str">
         <f>Futures!H33</f>
-        <v>obj_00625#0000</v>
+        <v>obj_00607#0000</v>
       </c>
       <c r="C51" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B51)</f>
-        <v>EURFUT3MM0_Quote</v>
+        <v>EURFUT3MU0_Quote</v>
       </c>
       <c r="D51" s="185">
         <f>_xll.qlRateHelperQuoteValue($B51,Trigger)</f>
-        <v>98.805000000000007</v>
+        <v>99.22999999999999</v>
       </c>
       <c r="E51" s="174">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B51,Trigger)</f>
@@ -4309,26 +4310,26 @@
       </c>
       <c r="I51" s="176">
         <f>_xll.qlRateHelperEarliestDate($B51,Trigger)</f>
-        <v>43999</v>
+        <v>44090</v>
       </c>
       <c r="J51" s="177">
         <f>_xll.qlRateHelperLatestDate($B51,Trigger)</f>
-        <v>44091</v>
+        <v>44181</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="172" t="str">
         <f>Futures!H34</f>
-        <v>obj_0064a#0000</v>
+        <v>obj_0060b#0000</v>
       </c>
       <c r="C52" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B52)</f>
-        <v>EURFUT3MU0_Quote</v>
+        <v>EURFUT3MZ0_Quote</v>
       </c>
       <c r="D52" s="185">
         <f>_xll.qlRateHelperQuoteValue($B52,Trigger)</f>
-        <v>98.715000000000003</v>
+        <v>99.175000000000011</v>
       </c>
       <c r="E52" s="174">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B52,Trigger)</f>
@@ -4345,22 +4346,22 @@
       </c>
       <c r="I52" s="176">
         <f>_xll.qlRateHelperEarliestDate($B52,Trigger)</f>
-        <v>44090</v>
+        <v>44181</v>
       </c>
       <c r="J52" s="177">
         <f>_xll.qlRateHelperLatestDate($B52,Trigger)</f>
-        <v>44181</v>
+        <v>44271</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="172" t="str">
         <f>Futures!H35</f>
-        <v>obj_00648#0000</v>
+        <v>obj_0062c#0000</v>
       </c>
       <c r="C53" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B53)</f>
-        <v>EURFUT3MZ0_Quote</v>
+        <v>EURFUT3MH1_Quote</v>
       </c>
       <c r="D53" s="185" t="e">
         <f>_xll.qlRateHelperQuoteValue($B53,Trigger)</f>
@@ -4381,22 +4382,22 @@
       </c>
       <c r="I53" s="176">
         <f>_xll.qlRateHelperEarliestDate($B53,Trigger)</f>
-        <v>44181</v>
+        <v>44272</v>
       </c>
       <c r="J53" s="177">
         <f>_xll.qlRateHelperLatestDate($B53,Trigger)</f>
-        <v>44271</v>
+        <v>44364</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="172" t="str">
         <f>Futures!H36</f>
-        <v>obj_00647#0000</v>
+        <v>obj_0063c#0000</v>
       </c>
       <c r="C54" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B54)</f>
-        <v>EURFUT3MH1_Quote</v>
+        <v>EURFUT3MM1_Quote</v>
       </c>
       <c r="D54" s="185" t="e">
         <f>_xll.qlRateHelperQuoteValue($B54,Trigger)</f>
@@ -4417,22 +4418,22 @@
       </c>
       <c r="I54" s="176">
         <f>_xll.qlRateHelperEarliestDate($B54,Trigger)</f>
-        <v>44272</v>
+        <v>44363</v>
       </c>
       <c r="J54" s="177">
         <f>_xll.qlRateHelperLatestDate($B54,Trigger)</f>
-        <v>44364</v>
+        <v>44455</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="172" t="str">
         <f>Futures!H37</f>
-        <v>obj_00651#0000</v>
+        <v>obj_0060c#0000</v>
       </c>
       <c r="C55" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B55)</f>
-        <v>EURFUT3MM1_Quote</v>
+        <v>EURFUT3MU1_Quote</v>
       </c>
       <c r="D55" s="185" t="e">
         <f>_xll.qlRateHelperQuoteValue($B55,Trigger)</f>
@@ -4453,22 +4454,22 @@
       </c>
       <c r="I55" s="176">
         <f>_xll.qlRateHelperEarliestDate($B55,Trigger)</f>
-        <v>44363</v>
+        <v>44454</v>
       </c>
       <c r="J55" s="177">
         <f>_xll.qlRateHelperLatestDate($B55,Trigger)</f>
-        <v>44455</v>
+        <v>44545</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="172" t="str">
         <f>Futures!H38</f>
-        <v>obj_0062e#0000</v>
+        <v>obj_00601#0000</v>
       </c>
       <c r="C56" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B56)</f>
-        <v>EURFUT3MU1_Quote</v>
+        <v>EURFUT3MZ1_Quote</v>
       </c>
       <c r="D56" s="185" t="e">
         <f>_xll.qlRateHelperQuoteValue($B56,Trigger)</f>
@@ -4489,22 +4490,22 @@
       </c>
       <c r="I56" s="176">
         <f>_xll.qlRateHelperEarliestDate($B56,Trigger)</f>
-        <v>44454</v>
+        <v>44545</v>
       </c>
       <c r="J56" s="177">
         <f>_xll.qlRateHelperLatestDate($B56,Trigger)</f>
-        <v>44545</v>
+        <v>44635</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="172" t="str">
         <f>Futures!H39</f>
-        <v>obj_00662#0000</v>
+        <v>obj_0061f#0000</v>
       </c>
       <c r="C57" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B57)</f>
-        <v>EURFUT3MZ1_Quote</v>
+        <v>EURFUT3MH2_Quote</v>
       </c>
       <c r="D57" s="185" t="e">
         <f>_xll.qlRateHelperQuoteValue($B57,Trigger)</f>
@@ -4525,22 +4526,22 @@
       </c>
       <c r="I57" s="176">
         <f>_xll.qlRateHelperEarliestDate($B57,Trigger)</f>
-        <v>44545</v>
+        <v>44636</v>
       </c>
       <c r="J57" s="177">
         <f>_xll.qlRateHelperLatestDate($B57,Trigger)</f>
-        <v>44635</v>
+        <v>44728</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="172" t="str">
         <f>Futures!H40</f>
-        <v>obj_0064f#0000</v>
+        <v>obj_00609#0000</v>
       </c>
       <c r="C58" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B58)</f>
-        <v>EURFUT3MH2_Quote</v>
+        <v>EURFUT3MM2_Quote</v>
       </c>
       <c r="D58" s="185" t="e">
         <f>_xll.qlRateHelperQuoteValue($B58,Trigger)</f>
@@ -4561,22 +4562,22 @@
       </c>
       <c r="I58" s="176">
         <f>_xll.qlRateHelperEarliestDate($B58,Trigger)</f>
-        <v>44636</v>
+        <v>44727</v>
       </c>
       <c r="J58" s="177">
         <f>_xll.qlRateHelperLatestDate($B58,Trigger)</f>
-        <v>44728</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="172" t="str">
         <f>Futures!H41</f>
-        <v>obj_00663#0000</v>
+        <v>obj_0063a#0000</v>
       </c>
       <c r="C59" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B59)</f>
-        <v>EURFUT3MM2_Quote</v>
+        <v>EURFUT3MU2_Quote</v>
       </c>
       <c r="D59" s="185" t="e">
         <f>_xll.qlRateHelperQuoteValue($B59,Trigger)</f>
@@ -4597,22 +4598,22 @@
       </c>
       <c r="I59" s="176">
         <f>_xll.qlRateHelperEarliestDate($B59,Trigger)</f>
-        <v>44727</v>
+        <v>44825</v>
       </c>
       <c r="J59" s="177">
         <f>_xll.qlRateHelperLatestDate($B59,Trigger)</f>
-        <v>44819</v>
+        <v>44916</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="172" t="str">
         <f>Futures!H42</f>
-        <v>obj_0062d#0000</v>
+        <v>obj_005f6#0000</v>
       </c>
       <c r="C60" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B60)</f>
-        <v>EURFUT3MU2_Quote</v>
+        <v>EURFUT3MZ2_Quote</v>
       </c>
       <c r="D60" s="185" t="e">
         <f>_xll.qlRateHelperQuoteValue($B60,Trigger)</f>
@@ -4633,22 +4634,22 @@
       </c>
       <c r="I60" s="176">
         <f>_xll.qlRateHelperEarliestDate($B60,Trigger)</f>
-        <v>44825</v>
+        <v>44916</v>
       </c>
       <c r="J60" s="177">
         <f>_xll.qlRateHelperLatestDate($B60,Trigger)</f>
-        <v>44916</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="178" t="str">
         <f>Futures!H43</f>
-        <v>obj_00661#0000</v>
+        <v>obj_00630#0000</v>
       </c>
       <c r="C61" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B61)</f>
-        <v>EURFUT3MZ2_Quote</v>
+        <v>EURFUT3MH3_Quote</v>
       </c>
       <c r="D61" s="185" t="e">
         <f>_xll.qlRateHelperQuoteValue($B61,Trigger)</f>
@@ -4669,22 +4670,22 @@
       </c>
       <c r="I61" s="176">
         <f>_xll.qlRateHelperEarliestDate($B61,Trigger)</f>
-        <v>44916</v>
+        <v>45000</v>
       </c>
       <c r="J61" s="177">
         <f>_xll.qlRateHelperLatestDate($B61,Trigger)</f>
-        <v>45006</v>
+        <v>45092</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="172" t="str">
         <f>Futures!H44</f>
-        <v>obj_00644#0000</v>
+        <v>obj_00604#0000</v>
       </c>
       <c r="C62" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B62)</f>
-        <v>EURFUT3MH3_Quote</v>
+        <v>EURFUT3MM3_Quote</v>
       </c>
       <c r="D62" s="185" t="e">
         <f>_xll.qlRateHelperQuoteValue($B62,Trigger)</f>
@@ -4705,18 +4706,18 @@
       </c>
       <c r="I62" s="176">
         <f>_xll.qlRateHelperEarliestDate($B62,Trigger)</f>
-        <v>45000</v>
+        <v>45098</v>
       </c>
       <c r="J62" s="177">
         <f>_xll.qlRateHelperLatestDate($B62,Trigger)</f>
-        <v>45092</v>
+        <v>45190</v>
       </c>
       <c r="K62" s="7"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B63" s="172" t="str">
         <f>Swaps!K5</f>
-        <v>obj_00627#0000</v>
+        <v>obj_00600#0000</v>
       </c>
       <c r="C63" s="167" t="str">
         <f>_xll.qlRateHelperQuoteName(B63)</f>
@@ -4724,7 +4725,7 @@
       </c>
       <c r="D63" s="192">
         <f>_xll.qlRateHelperQuoteValue($B63,Trigger)</f>
-        <v>2.0200000000000001E-3</v>
+        <v>1.15E-3</v>
       </c>
       <c r="E63" s="168">
         <f>_xll.qlSwapRateHelperSpread($B63,Trigger)</f>
@@ -4741,18 +4742,18 @@
       </c>
       <c r="I63" s="170">
         <f>_xll.qlRateHelperEarliestDate($B63,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J63" s="171">
         <f>_xll.qlRateHelperLatestDate($B63,Trigger)</f>
-        <v>42311</v>
+        <v>42425</v>
       </c>
       <c r="L63" s="5"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B64" s="172" t="str">
         <f>Swaps!K6</f>
-        <v>obj_00642#0000</v>
+        <v>obj_00626#0000</v>
       </c>
       <c r="C64" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B64)</f>
@@ -4760,7 +4761,7 @@
       </c>
       <c r="D64" s="186">
         <f>_xll.qlRateHelperQuoteValue($B64,Trigger)</f>
-        <v>1.91E-3</v>
+        <v>8.8999999999999995E-4</v>
       </c>
       <c r="E64" s="174">
         <f>_xll.qlSwapRateHelperSpread($B64,Trigger)</f>
@@ -4777,18 +4778,18 @@
       </c>
       <c r="I64" s="176">
         <f>_xll.qlRateHelperEarliestDate($B64,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J64" s="177">
         <f>_xll.qlRateHelperLatestDate($B64,Trigger)</f>
-        <v>42403</v>
+        <v>42515</v>
       </c>
       <c r="L64" s="5"/>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B65" s="172" t="str">
         <f>Swaps!K7</f>
-        <v>obj_00616#0000</v>
+        <v>obj_00628#0000</v>
       </c>
       <c r="C65" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B65)</f>
@@ -4796,7 +4797,7 @@
       </c>
       <c r="D65" s="186">
         <f>_xll.qlRateHelperQuoteValue($B65,Trigger)</f>
-        <v>2.14E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="E65" s="174">
         <f>_xll.qlSwapRateHelperSpread($B65,Trigger)</f>
@@ -4813,18 +4814,18 @@
       </c>
       <c r="I65" s="176">
         <f>_xll.qlRateHelperEarliestDate($B65,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J65" s="177">
         <f>_xll.qlRateHelperLatestDate($B65,Trigger)</f>
-        <v>42493</v>
+        <v>42607</v>
       </c>
       <c r="L65" s="5"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B66" s="172" t="str">
         <f>Swaps!K8</f>
-        <v>obj_0061f#0000</v>
+        <v>obj_005ff#0000</v>
       </c>
       <c r="C66" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B66)</f>
@@ -4832,7 +4833,7 @@
       </c>
       <c r="D66" s="186">
         <f>_xll.qlRateHelperQuoteValue($B66,Trigger)</f>
-        <v>2.1099999999999999E-3</v>
+        <v>9.7000000000000005E-4</v>
       </c>
       <c r="E66" s="174">
         <f>_xll.qlSwapRateHelperSpread($B66,Trigger)</f>
@@ -4849,18 +4850,18 @@
       </c>
       <c r="I66" s="176">
         <f>_xll.qlRateHelperEarliestDate($B66,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J66" s="177">
         <f>_xll.qlRateHelperLatestDate($B66,Trigger)</f>
-        <v>42585</v>
+        <v>42699</v>
       </c>
       <c r="L66" s="5"/>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B67" s="172" t="str">
         <f>Swaps!K9</f>
-        <v>obj_0063d#0000</v>
+        <v>obj_00603#0000</v>
       </c>
       <c r="C67" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B67)</f>
@@ -4868,7 +4869,7 @@
       </c>
       <c r="D67" s="186">
         <f>_xll.qlRateHelperQuoteValue($B67,Trigger)</f>
-        <v>2.3400000000000001E-3</v>
+        <v>1.17E-3</v>
       </c>
       <c r="E67" s="174">
         <f>_xll.qlSwapRateHelperSpread($B67,Trigger)</f>
@@ -4885,18 +4886,18 @@
       </c>
       <c r="I67" s="176">
         <f>_xll.qlRateHelperEarliestDate($B67,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J67" s="177">
         <f>_xll.qlRateHelperLatestDate($B67,Trigger)</f>
-        <v>42677</v>
+        <v>42793</v>
       </c>
       <c r="L67" s="5"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B68" s="172" t="str">
         <f>Swaps!K10</f>
-        <v>obj_00628#0000</v>
+        <v>obj_00611#0000</v>
       </c>
       <c r="C68" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B68)</f>
@@ -4904,7 +4905,7 @@
       </c>
       <c r="D68" s="186">
         <f>_xll.qlRateHelperQuoteValue($B68,Trigger)</f>
-        <v>2.9300000000000003E-3</v>
+        <v>1.5399999999999997E-3</v>
       </c>
       <c r="E68" s="174">
         <f>_xll.qlSwapRateHelperSpread($B68,Trigger)</f>
@@ -4921,18 +4922,18 @@
       </c>
       <c r="I68" s="176">
         <f>_xll.qlRateHelperEarliestDate($B68,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J68" s="177">
         <f>_xll.qlRateHelperLatestDate($B68,Trigger)</f>
-        <v>43042</v>
+        <v>43157</v>
       </c>
       <c r="L68" s="5"/>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B69" s="172" t="str">
         <f>Swaps!K11</f>
-        <v>obj_00631#0000</v>
+        <v>obj_00633#0000</v>
       </c>
       <c r="C69" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B69)</f>
@@ -4940,7 +4941,7 @@
       </c>
       <c r="D69" s="186">
         <f>_xll.qlRateHelperQuoteValue($B69,Trigger)</f>
-        <v>3.7699999999999999E-3</v>
+        <v>2.14E-3</v>
       </c>
       <c r="E69" s="174">
         <f>_xll.qlSwapRateHelperSpread($B69,Trigger)</f>
@@ -4957,18 +4958,18 @@
       </c>
       <c r="I69" s="176">
         <f>_xll.qlRateHelperEarliestDate($B69,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J69" s="177">
         <f>_xll.qlRateHelperLatestDate($B69,Trigger)</f>
-        <v>43409</v>
+        <v>43521</v>
       </c>
       <c r="L69" s="5"/>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B70" s="172" t="str">
         <f>Swaps!K12</f>
-        <v>obj_0063a#0000</v>
+        <v>obj_00605#0000</v>
       </c>
       <c r="C70" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B70)</f>
@@ -4976,7 +4977,7 @@
       </c>
       <c r="D70" s="186">
         <f>_xll.qlRateHelperQuoteValue($B70,Trigger)</f>
-        <v>4.7999999999999996E-3</v>
+        <v>2.8799999999999997E-3</v>
       </c>
       <c r="E70" s="174">
         <f>_xll.qlSwapRateHelperSpread($B70,Trigger)</f>
@@ -4993,18 +4994,18 @@
       </c>
       <c r="I70" s="176">
         <f>_xll.qlRateHelperEarliestDate($B70,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J70" s="177">
         <f>_xll.qlRateHelperLatestDate($B70,Trigger)</f>
-        <v>43773</v>
+        <v>43886</v>
       </c>
       <c r="L70" s="5"/>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B71" s="172" t="str">
         <f>Swaps!K13</f>
-        <v>obj_00659#0000</v>
+        <v>obj_0061b#0000</v>
       </c>
       <c r="C71" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B71)</f>
@@ -5012,7 +5013,7 @@
       </c>
       <c r="D71" s="186">
         <f>_xll.qlRateHelperQuoteValue($B71,Trigger)</f>
-        <v>5.9499999999999996E-3</v>
+        <v>3.6800000000000001E-3</v>
       </c>
       <c r="E71" s="174">
         <f>_xll.qlSwapRateHelperSpread($B71,Trigger)</f>
@@ -5029,18 +5030,18 @@
       </c>
       <c r="I71" s="176">
         <f>_xll.qlRateHelperEarliestDate($B71,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J71" s="177">
         <f>_xll.qlRateHelperLatestDate($B71,Trigger)</f>
-        <v>44138</v>
+        <v>44252</v>
       </c>
       <c r="L71" s="5"/>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B72" s="172" t="str">
         <f>Swaps!K14</f>
-        <v>obj_00624#0000</v>
+        <v>obj_0063b#0000</v>
       </c>
       <c r="C72" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B72)</f>
@@ -5048,7 +5049,7 @@
       </c>
       <c r="D72" s="186">
         <f>_xll.qlRateHelperQuoteValue($B72,Trigger)</f>
-        <v>7.2299999999999994E-3</v>
+        <v>4.5499999999999994E-3</v>
       </c>
       <c r="E72" s="174">
         <f>_xll.qlSwapRateHelperSpread($B72,Trigger)</f>
@@ -5065,18 +5066,18 @@
       </c>
       <c r="I72" s="176">
         <f>_xll.qlRateHelperEarliestDate($B72,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J72" s="177">
         <f>_xll.qlRateHelperLatestDate($B72,Trigger)</f>
-        <v>44503</v>
+        <v>44617</v>
       </c>
       <c r="L72" s="5"/>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B73" s="172" t="str">
         <f>Swaps!K15</f>
-        <v>obj_00643#0000</v>
+        <v>obj_005f9#0000</v>
       </c>
       <c r="C73" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B73)</f>
@@ -5084,7 +5085,7 @@
       </c>
       <c r="D73" s="186">
         <f>_xll.qlRateHelperQuoteValue($B73,Trigger)</f>
-        <v>8.5500000000000003E-3</v>
+        <v>5.4600000000000004E-3</v>
       </c>
       <c r="E73" s="174">
         <f>_xll.qlSwapRateHelperSpread($B73,Trigger)</f>
@@ -5101,18 +5102,18 @@
       </c>
       <c r="I73" s="176">
         <f>_xll.qlRateHelperEarliestDate($B73,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J73" s="177">
         <f>_xll.qlRateHelperLatestDate($B73,Trigger)</f>
-        <v>44868</v>
+        <v>44984</v>
       </c>
       <c r="L73" s="5"/>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B74" s="172" t="str">
         <f>Swaps!K16</f>
-        <v>obj_00654#0000</v>
+        <v>obj_00638#0000</v>
       </c>
       <c r="C74" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B74)</f>
@@ -5120,7 +5121,7 @@
       </c>
       <c r="D74" s="186">
         <f>_xll.qlRateHelperQuoteValue($B74,Trigger)</f>
-        <v>9.8099999999999993E-3</v>
+        <v>6.3299999999999997E-3</v>
       </c>
       <c r="E74" s="174">
         <f>_xll.qlSwapRateHelperSpread($B74,Trigger)</f>
@@ -5137,18 +5138,18 @@
       </c>
       <c r="I74" s="176">
         <f>_xll.qlRateHelperEarliestDate($B74,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J74" s="177">
         <f>_xll.qlRateHelperLatestDate($B74,Trigger)</f>
-        <v>45233</v>
+        <v>45348</v>
       </c>
       <c r="L74" s="5"/>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B75" s="172" t="str">
         <f>Swaps!K17</f>
-        <v>obj_00636#0000</v>
+        <v>obj_00602#0000</v>
       </c>
       <c r="C75" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B75)</f>
@@ -5156,7 +5157,7 @@
       </c>
       <c r="D75" s="186">
         <f>_xll.qlRateHelperQuoteValue($B75,Trigger)</f>
-        <v>1.0970000000000001E-2</v>
+        <v>7.1300000000000001E-3</v>
       </c>
       <c r="E75" s="174">
         <f>_xll.qlSwapRateHelperSpread($B75,Trigger)</f>
@@ -5173,18 +5174,18 @@
       </c>
       <c r="I75" s="176">
         <f>_xll.qlRateHelperEarliestDate($B75,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J75" s="177">
         <f>_xll.qlRateHelperLatestDate($B75,Trigger)</f>
-        <v>45600</v>
+        <v>45713</v>
       </c>
       <c r="L75" s="5"/>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B76" s="172" t="str">
         <f>Swaps!K18</f>
-        <v>obj_00649#0000</v>
+        <v>obj_005fa#0000</v>
       </c>
       <c r="C76" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B76)</f>
@@ -5192,7 +5193,7 @@
       </c>
       <c r="D76" s="186">
         <f>_xll.qlRateHelperQuoteValue($B76,Trigger)</f>
-        <v>1.201E-2</v>
+        <v>7.8299999999999984E-3</v>
       </c>
       <c r="E76" s="174">
         <f>_xll.qlSwapRateHelperSpread($B76,Trigger)</f>
@@ -5209,18 +5210,18 @@
       </c>
       <c r="I76" s="176">
         <f>_xll.qlRateHelperEarliestDate($B76,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J76" s="177">
         <f>_xll.qlRateHelperLatestDate($B76,Trigger)</f>
-        <v>45964</v>
+        <v>46078</v>
       </c>
       <c r="L76" s="5"/>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B77" s="172" t="str">
         <f>Swaps!K19</f>
-        <v>obj_0062b#0000</v>
+        <v>obj_0062a#0000</v>
       </c>
       <c r="C77" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B77)</f>
@@ -5228,7 +5229,7 @@
       </c>
       <c r="D77" s="186">
         <f>_xll.qlRateHelperQuoteValue($B77,Trigger)</f>
-        <v>1.2920000000000001E-2</v>
+        <v>8.4499999999999992E-3</v>
       </c>
       <c r="E77" s="174">
         <f>_xll.qlSwapRateHelperSpread($B77,Trigger)</f>
@@ -5245,18 +5246,18 @@
       </c>
       <c r="I77" s="176">
         <f>_xll.qlRateHelperEarliestDate($B77,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J77" s="177">
         <f>_xll.qlRateHelperLatestDate($B77,Trigger)</f>
-        <v>46329</v>
+        <v>46443</v>
       </c>
       <c r="L77" s="5"/>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B78" s="172" t="str">
         <f>Swaps!K20</f>
-        <v>obj_0065c#0000</v>
+        <v>obj_00625#0000</v>
       </c>
       <c r="C78" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B78)</f>
@@ -5264,7 +5265,7 @@
       </c>
       <c r="D78" s="186">
         <f>_xll.qlRateHelperQuoteValue($B78,Trigger)</f>
-        <v>1.372E-2</v>
+        <v>9.0100000000000006E-3</v>
       </c>
       <c r="E78" s="174">
         <f>_xll.qlSwapRateHelperSpread($B78,Trigger)</f>
@@ -5281,18 +5282,18 @@
       </c>
       <c r="I78" s="176">
         <f>_xll.qlRateHelperEarliestDate($B78,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J78" s="177">
         <f>_xll.qlRateHelperLatestDate($B78,Trigger)</f>
-        <v>46694</v>
+        <v>46808</v>
       </c>
       <c r="L78" s="5"/>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="172" t="str">
         <f>Swaps!K21</f>
-        <v>obj_0063f#0000</v>
+        <v>obj_0062e#0000</v>
       </c>
       <c r="C79" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B79)</f>
@@ -5300,7 +5301,7 @@
       </c>
       <c r="D79" s="186">
         <f>_xll.qlRateHelperQuoteValue($B79,Trigger)</f>
-        <v>1.4419999999999999E-2</v>
+        <v>9.4900000000000002E-3</v>
       </c>
       <c r="E79" s="174">
         <f>_xll.qlSwapRateHelperSpread($B79,Trigger)</f>
@@ -5317,18 +5318,18 @@
       </c>
       <c r="I79" s="176">
         <f>_xll.qlRateHelperEarliestDate($B79,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J79" s="177">
         <f>_xll.qlRateHelperLatestDate($B79,Trigger)</f>
-        <v>47060</v>
+        <v>47175</v>
       </c>
       <c r="L79" s="5"/>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B80" s="172" t="str">
         <f>Swaps!K22</f>
-        <v>obj_00637#0000</v>
+        <v>obj_00613#0000</v>
       </c>
       <c r="C80" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B80)</f>
@@ -5336,7 +5337,7 @@
       </c>
       <c r="D80" s="186">
         <f>_xll.qlRateHelperQuoteValue($B80,Trigger)</f>
-        <v>1.502E-2</v>
+        <v>9.9100000000000004E-3</v>
       </c>
       <c r="E80" s="174">
         <f>_xll.qlSwapRateHelperSpread($B80,Trigger)</f>
@@ -5353,18 +5354,18 @@
       </c>
       <c r="I80" s="176">
         <f>_xll.qlRateHelperEarliestDate($B80,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J80" s="177">
         <f>_xll.qlRateHelperLatestDate($B80,Trigger)</f>
-        <v>47427</v>
+        <v>47539</v>
       </c>
       <c r="L80" s="5"/>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B81" s="172" t="str">
         <f>Swaps!K23</f>
-        <v>obj_00657#0000</v>
+        <v>obj_005fc#0000</v>
       </c>
       <c r="C81" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B81)</f>
@@ -5372,7 +5373,7 @@
       </c>
       <c r="D81" s="186">
         <f>_xll.qlRateHelperQuoteValue($B81,Trigger)</f>
-        <v>1.555E-2</v>
+        <v>1.03E-2</v>
       </c>
       <c r="E81" s="174">
         <f>_xll.qlSwapRateHelperSpread($B81,Trigger)</f>
@@ -5389,18 +5390,18 @@
       </c>
       <c r="I81" s="176">
         <f>_xll.qlRateHelperEarliestDate($B81,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J81" s="177">
         <f>_xll.qlRateHelperLatestDate($B81,Trigger)</f>
-        <v>47791</v>
+        <v>47904</v>
       </c>
       <c r="L81" s="5"/>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B82" s="172" t="str">
         <f>Swaps!K24</f>
-        <v>obj_00640#0000</v>
+        <v>obj_00629#0000</v>
       </c>
       <c r="C82" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B82)</f>
@@ -5408,7 +5409,7 @@
       </c>
       <c r="D82" s="186">
         <f>_xll.qlRateHelperQuoteValue($B82,Trigger)</f>
-        <v>1.601E-2</v>
+        <v>1.0660000000000001E-2</v>
       </c>
       <c r="E82" s="174">
         <f>_xll.qlSwapRateHelperSpread($B82,Trigger)</f>
@@ -5425,18 +5426,18 @@
       </c>
       <c r="I82" s="176">
         <f>_xll.qlRateHelperEarliestDate($B82,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J82" s="177">
         <f>_xll.qlRateHelperLatestDate($B82,Trigger)</f>
-        <v>48155</v>
+        <v>48269</v>
       </c>
       <c r="L82" s="5"/>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B83" s="172" t="str">
         <f>Swaps!K25</f>
-        <v>obj_0061a#0000</v>
+        <v>obj_00616#0000</v>
       </c>
       <c r="C83" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B83)</f>
@@ -5444,7 +5445,7 @@
       </c>
       <c r="D83" s="186">
         <f>_xll.qlRateHelperQuoteValue($B83,Trigger)</f>
-        <v>1.6400000000000001E-2</v>
+        <v>1.0979999999999998E-2</v>
       </c>
       <c r="E83" s="174">
         <f>_xll.qlSwapRateHelperSpread($B83,Trigger)</f>
@@ -5461,18 +5462,18 @@
       </c>
       <c r="I83" s="176">
         <f>_xll.qlRateHelperEarliestDate($B83,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J83" s="177">
         <f>_xll.qlRateHelperLatestDate($B83,Trigger)</f>
-        <v>48521</v>
+        <v>48635</v>
       </c>
       <c r="L83" s="5"/>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B84" s="172" t="str">
         <f>Swaps!K26</f>
-        <v>obj_00638#0000</v>
+        <v>obj_00618#0000</v>
       </c>
       <c r="C84" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B84)</f>
@@ -5480,7 +5481,7 @@
       </c>
       <c r="D84" s="186">
         <f>_xll.qlRateHelperQuoteValue($B84,Trigger)</f>
-        <v>1.6739999999999998E-2</v>
+        <v>1.1259999999999999E-2</v>
       </c>
       <c r="E84" s="174">
         <f>_xll.qlSwapRateHelperSpread($B84,Trigger)</f>
@@ -5497,18 +5498,18 @@
       </c>
       <c r="I84" s="176">
         <f>_xll.qlRateHelperEarliestDate($B84,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J84" s="177">
         <f>_xll.qlRateHelperLatestDate($B84,Trigger)</f>
-        <v>48886</v>
+        <v>49002</v>
       </c>
       <c r="L84" s="5"/>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B85" s="172" t="str">
         <f>Swaps!K27</f>
-        <v>obj_00645#0000</v>
+        <v>obj_00614#0000</v>
       </c>
       <c r="C85" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B85)</f>
@@ -5516,7 +5517,7 @@
       </c>
       <c r="D85" s="186">
         <f>_xll.qlRateHelperQuoteValue($B85,Trigger)</f>
-        <v>1.702E-2</v>
+        <v>1.15E-2</v>
       </c>
       <c r="E85" s="174">
         <f>_xll.qlSwapRateHelperSpread($B85,Trigger)</f>
@@ -5533,18 +5534,18 @@
       </c>
       <c r="I85" s="176">
         <f>_xll.qlRateHelperEarliestDate($B85,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J85" s="177">
         <f>_xll.qlRateHelperLatestDate($B85,Trigger)</f>
-        <v>49251</v>
+        <v>49366</v>
       </c>
       <c r="L85" s="5"/>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B86" s="172" t="str">
         <f>Swaps!K28</f>
-        <v>obj_00658#0000</v>
+        <v>obj_0060d#0000</v>
       </c>
       <c r="C86" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B86)</f>
@@ -5552,7 +5553,7 @@
       </c>
       <c r="D86" s="186">
         <f>_xll.qlRateHelperQuoteValue($B86,Trigger)</f>
-        <v>1.7260000000000001E-2</v>
+        <v>1.171E-2</v>
       </c>
       <c r="E86" s="174">
         <f>_xll.qlSwapRateHelperSpread($B86,Trigger)</f>
@@ -5569,18 +5570,18 @@
       </c>
       <c r="I86" s="176">
         <f>_xll.qlRateHelperEarliestDate($B86,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J86" s="177">
         <f>_xll.qlRateHelperLatestDate($B86,Trigger)</f>
-        <v>49618</v>
+        <v>49730</v>
       </c>
       <c r="L86" s="5"/>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B87" s="172" t="str">
         <f>Swaps!K29</f>
-        <v>obj_0065e#0000</v>
+        <v>obj_005fd#0000</v>
       </c>
       <c r="C87" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B87)</f>
@@ -5588,7 +5589,7 @@
       </c>
       <c r="D87" s="186">
         <f>_xll.qlRateHelperQuoteValue($B87,Trigger)</f>
-        <v>1.745E-2</v>
+        <v>1.1899999999999999E-2</v>
       </c>
       <c r="E87" s="174">
         <f>_xll.qlSwapRateHelperSpread($B87,Trigger)</f>
@@ -5605,18 +5606,18 @@
       </c>
       <c r="I87" s="176">
         <f>_xll.qlRateHelperEarliestDate($B87,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J87" s="177">
         <f>_xll.qlRateHelperLatestDate($B87,Trigger)</f>
-        <v>49982</v>
+        <v>50096</v>
       </c>
       <c r="L87" s="5"/>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B88" s="172" t="str">
         <f>Swaps!K30</f>
-        <v>obj_0061e#0000</v>
+        <v>obj_005f4#0000</v>
       </c>
       <c r="C88" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B88)</f>
@@ -5624,7 +5625,7 @@
       </c>
       <c r="D88" s="186">
         <f>_xll.qlRateHelperQuoteValue($B88,Trigger)</f>
-        <v>1.7610000000000001E-2</v>
+        <v>1.206E-2</v>
       </c>
       <c r="E88" s="174">
         <f>_xll.qlSwapRateHelperSpread($B88,Trigger)</f>
@@ -5641,18 +5642,18 @@
       </c>
       <c r="I88" s="176">
         <f>_xll.qlRateHelperEarliestDate($B88,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J88" s="177">
         <f>_xll.qlRateHelperLatestDate($B88,Trigger)</f>
-        <v>50347</v>
+        <v>50461</v>
       </c>
       <c r="L88" s="5"/>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B89" s="172" t="str">
         <f>Swaps!K31</f>
-        <v>obj_0064d#0000</v>
+        <v>obj_00622#0000</v>
       </c>
       <c r="C89" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B89)</f>
@@ -5660,7 +5661,7 @@
       </c>
       <c r="D89" s="186">
         <f>_xll.qlRateHelperQuoteValue($B89,Trigger)</f>
-        <v>1.7739999999999999E-2</v>
+        <v>1.2199999999999999E-2</v>
       </c>
       <c r="E89" s="174">
         <f>_xll.qlSwapRateHelperSpread($B89,Trigger)</f>
@@ -5677,18 +5678,18 @@
       </c>
       <c r="I89" s="176">
         <f>_xll.qlRateHelperEarliestDate($B89,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J89" s="177">
         <f>_xll.qlRateHelperLatestDate($B89,Trigger)</f>
-        <v>50712</v>
+        <v>50826</v>
       </c>
       <c r="L89" s="5"/>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B90" s="172" t="str">
         <f>Swaps!K32</f>
-        <v>obj_00620#0000</v>
+        <v>obj_00610#0000</v>
       </c>
       <c r="C90" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B90)</f>
@@ -5696,7 +5697,7 @@
       </c>
       <c r="D90" s="186">
         <f>_xll.qlRateHelperQuoteValue($B90,Trigger)</f>
-        <v>1.7849999999999998E-2</v>
+        <v>1.2330000000000001E-2</v>
       </c>
       <c r="E90" s="174">
         <f>_xll.qlSwapRateHelperSpread($B90,Trigger)</f>
@@ -5713,18 +5714,18 @@
       </c>
       <c r="I90" s="176">
         <f>_xll.qlRateHelperEarliestDate($B90,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J90" s="177">
         <f>_xll.qlRateHelperLatestDate($B90,Trigger)</f>
-        <v>51077</v>
+        <v>51193</v>
       </c>
       <c r="L90" s="5"/>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B91" s="172" t="str">
         <f>Swaps!K33</f>
-        <v>obj_00630#0000</v>
+        <v>obj_00617#0000</v>
       </c>
       <c r="C91" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B91)</f>
@@ -5732,7 +5733,7 @@
       </c>
       <c r="D91" s="186">
         <f>_xll.qlRateHelperQuoteValue($B91,Trigger)</f>
-        <v>1.7940000000000001E-2</v>
+        <v>1.2450000000000001E-2</v>
       </c>
       <c r="E91" s="174">
         <f>_xll.qlSwapRateHelperSpread($B91,Trigger)</f>
@@ -5749,18 +5750,18 @@
       </c>
       <c r="I91" s="176">
         <f>_xll.qlRateHelperEarliestDate($B91,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J91" s="177">
         <f>_xll.qlRateHelperLatestDate($B91,Trigger)</f>
-        <v>51445</v>
+        <v>51557</v>
       </c>
       <c r="L91" s="5"/>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B92" s="172" t="str">
         <f>Swaps!K34</f>
-        <v>obj_00623#0000</v>
+        <v>obj_00636#0000</v>
       </c>
       <c r="C92" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B92)</f>
@@ -5768,7 +5769,7 @@
       </c>
       <c r="D92" s="186">
         <f>_xll.qlRateHelperQuoteValue($B92,Trigger)</f>
-        <v>1.8020000000000001E-2</v>
+        <v>1.256E-2</v>
       </c>
       <c r="E92" s="174">
         <f>_xll.qlSwapRateHelperSpread($B92,Trigger)</f>
@@ -5785,18 +5786,18 @@
       </c>
       <c r="I92" s="176">
         <f>_xll.qlRateHelperEarliestDate($B92,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J92" s="177">
         <f>_xll.qlRateHelperLatestDate($B92,Trigger)</f>
-        <v>51809</v>
+        <v>51922</v>
       </c>
       <c r="L92" s="5"/>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B93" s="172" t="str">
         <f>Swaps!K35</f>
-        <v>obj_00635#0000</v>
+        <v>obj_005f7#0000</v>
       </c>
       <c r="C93" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B93)</f>
@@ -5804,7 +5805,7 @@
       </c>
       <c r="D93" s="186">
         <f>_xll.qlRateHelperQuoteValue($B93,Trigger)</f>
-        <v>1.8079999999999999E-2</v>
+        <v>1.2659999999999999E-2</v>
       </c>
       <c r="E93" s="174">
         <f>_xll.qlSwapRateHelperSpread($B93,Trigger)</f>
@@ -5821,18 +5822,18 @@
       </c>
       <c r="I93" s="176">
         <f>_xll.qlRateHelperEarliestDate($B93,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J93" s="177">
         <f>_xll.qlRateHelperLatestDate($B93,Trigger)</f>
-        <v>52173</v>
+        <v>52287</v>
       </c>
       <c r="L93" s="5"/>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B94" s="172" t="str">
         <f>Swaps!K36</f>
-        <v>obj_0064e#0000</v>
+        <v>obj_0063d#0000</v>
       </c>
       <c r="C94" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B94)</f>
@@ -5840,7 +5841,7 @@
       </c>
       <c r="D94" s="186">
         <f>_xll.qlRateHelperQuoteValue($B94,Trigger)</f>
-        <v>1.814E-2</v>
+        <v>1.2749999999999999E-2</v>
       </c>
       <c r="E94" s="174">
         <f>_xll.qlSwapRateHelperSpread($B94,Trigger)</f>
@@ -5857,18 +5858,18 @@
       </c>
       <c r="I94" s="176">
         <f>_xll.qlRateHelperEarliestDate($B94,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J94" s="177">
         <f>_xll.qlRateHelperLatestDate($B94,Trigger)</f>
-        <v>52538</v>
+        <v>52652</v>
       </c>
       <c r="L94" s="5"/>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B95" s="172" t="str">
         <f>Swaps!K37</f>
-        <v>obj_00633#0000</v>
+        <v>obj_00641#0000</v>
       </c>
       <c r="C95" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B95)</f>
@@ -5876,7 +5877,7 @@
       </c>
       <c r="D95" s="186">
         <f>_xll.qlRateHelperQuoteValue($B95,Trigger)</f>
-        <v>1.8200000000000001E-2</v>
+        <v>1.2829999999999999E-2</v>
       </c>
       <c r="E95" s="174">
         <f>_xll.qlSwapRateHelperSpread($B95,Trigger)</f>
@@ -5893,18 +5894,18 @@
       </c>
       <c r="I95" s="176">
         <f>_xll.qlRateHelperEarliestDate($B95,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J95" s="177">
         <f>_xll.qlRateHelperLatestDate($B95,Trigger)</f>
-        <v>52904</v>
+        <v>53020</v>
       </c>
       <c r="L95" s="5"/>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B96" s="172" t="str">
         <f>Swaps!K38</f>
-        <v>obj_00617#0000</v>
+        <v>obj_005f3#0000</v>
       </c>
       <c r="C96" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B96)</f>
@@ -5912,7 +5913,7 @@
       </c>
       <c r="D96" s="186">
         <f>_xll.qlRateHelperQuoteValue($B96,Trigger)</f>
-        <v>1.848E-2</v>
+        <v>1.3100000000000001E-2</v>
       </c>
       <c r="E96" s="174">
         <f>_xll.qlSwapRateHelperSpread($B96,Trigger)</f>
@@ -5929,18 +5930,18 @@
       </c>
       <c r="I96" s="176">
         <f>_xll.qlRateHelperEarliestDate($B96,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J96" s="177">
         <f>_xll.qlRateHelperLatestDate($B96,Trigger)</f>
-        <v>54730</v>
+        <v>54844</v>
       </c>
       <c r="L96" s="5"/>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B97" s="172" t="str">
         <f>Swaps!K39</f>
-        <v>obj_0062a#0000</v>
+        <v>obj_00621#0000</v>
       </c>
       <c r="C97" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B97)</f>
@@ -5948,7 +5949,7 @@
       </c>
       <c r="D97" s="186">
         <f>_xll.qlRateHelperQuoteValue($B97,Trigger)</f>
-        <v>1.873E-2</v>
+        <v>1.325E-2</v>
       </c>
       <c r="E97" s="174">
         <f>_xll.qlSwapRateHelperSpread($B97,Trigger)</f>
@@ -5965,18 +5966,18 @@
       </c>
       <c r="I97" s="176">
         <f>_xll.qlRateHelperEarliestDate($B97,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J97" s="177">
         <f>_xll.qlRateHelperLatestDate($B97,Trigger)</f>
-        <v>56556</v>
+        <v>56670</v>
       </c>
       <c r="L97" s="5"/>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B98" s="172" t="str">
         <f>Swaps!K40</f>
-        <v>obj_00650#0000</v>
+        <v>obj_005fb#0000</v>
       </c>
       <c r="C98" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B98)</f>
@@ -5984,7 +5985,7 @@
       </c>
       <c r="D98" s="186">
         <f>_xll.qlRateHelperQuoteValue($B98,Trigger)</f>
-        <v>1.8839999999999999E-2</v>
+        <v>1.3050000000000001E-2</v>
       </c>
       <c r="E98" s="174">
         <f>_xll.qlSwapRateHelperSpread($B98,Trigger)</f>
@@ -6001,18 +6002,18 @@
       </c>
       <c r="I98" s="176">
         <f>_xll.qlRateHelperEarliestDate($B98,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J98" s="177">
         <f>_xll.qlRateHelperLatestDate($B98,Trigger)</f>
-        <v>60209</v>
+        <v>60323</v>
       </c>
       <c r="L98" s="5"/>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B99" s="178" t="str">
         <f>Swaps!K41</f>
-        <v>obj_0061b#0000</v>
+        <v>obj_00631#0000</v>
       </c>
       <c r="C99" s="179" t="str">
         <f>_xll.qlRateHelperQuoteName(B99)</f>
@@ -6020,7 +6021,7 @@
       </c>
       <c r="D99" s="187">
         <f>_xll.qlRateHelperQuoteValue($B99,Trigger)</f>
-        <v>1.8970000000000001E-2</v>
+        <v>1.29E-2</v>
       </c>
       <c r="E99" s="180">
         <f>_xll.qlSwapRateHelperSpread($B99,Trigger)</f>
@@ -6037,11 +6038,11 @@
       </c>
       <c r="I99" s="182">
         <f>_xll.qlRateHelperEarliestDate($B99,Trigger)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J99" s="183">
         <f>_xll.qlRateHelperLatestDate($B99,Trigger)</f>
-        <v>63863</v>
+        <v>63975</v>
       </c>
       <c r="L99" s="5"/>
     </row>
@@ -6069,10 +6070,10 @@
     <col min="3" max="3" width="2.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" style="2" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="1"/>
     <col min="12" max="12" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -6103,7 +6104,7 @@
       </c>
       <c r="J1" s="5">
         <f t="array" ref="J1:J126">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
-        <v>4.0555533025081675E-4</v>
+        <v>-8.111120123837917E-4</v>
       </c>
       <c r="L1" s="61"/>
       <c r="M1" s="63"/>
@@ -6127,7 +6128,7 @@
       </c>
       <c r="D2" s="18" t="str">
         <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
-        <v>obj_00615</v>
+        <v>obj_005f2</v>
       </c>
       <c r="E2" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D2)</f>
@@ -6135,7 +6136,7 @@
       </c>
       <c r="F2" s="17">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>4.0000000000000002E-4</v>
+        <v>-8.0000000000000004E-4</v>
       </c>
       <c r="G2" s="17" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -6143,14 +6144,14 @@
       </c>
       <c r="H2" s="16">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41942</v>
+        <v>42058</v>
       </c>
       <c r="I2" s="15">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41943</v>
+        <v>42059</v>
       </c>
       <c r="J2" s="5">
-        <v>4.0555533025081675E-4</v>
+        <v>-8.111120123837917E-4</v>
       </c>
       <c r="L2" s="61"/>
       <c r="M2" s="63"/>
@@ -6173,7 +6174,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="18" t="str">
-        <v>obj_0060f</v>
+        <v>obj_005e5</v>
       </c>
       <c r="E3" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D3)</f>
@@ -6181,7 +6182,7 @@
       </c>
       <c r="F3" s="17">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>5.0000000000000001E-4</v>
+        <v>-8.0000000000000004E-4</v>
       </c>
       <c r="G3" s="17" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -6189,14 +6190,14 @@
       </c>
       <c r="H3" s="16">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41943</v>
+        <v>42059</v>
       </c>
       <c r="I3" s="15">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="J3" s="5">
-        <v>4.8159637380562479E-4</v>
+        <v>-8.111120123927767E-4</v>
       </c>
       <c r="L3" s="61"/>
       <c r="M3" s="63"/>
@@ -6219,7 +6220,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="18" t="str">
-        <v>obj_00602</v>
+        <v>obj_005d9</v>
       </c>
       <c r="E4" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D4)</f>
@@ -6227,7 +6228,7 @@
       </c>
       <c r="F4" s="17">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>5.0000000000000001E-4</v>
+        <v>-8.0000000000000004E-4</v>
       </c>
       <c r="G4" s="17" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -6235,14 +6236,14 @@
       </c>
       <c r="H4" s="16">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="I4" s="15">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41947</v>
+        <v>42061</v>
       </c>
       <c r="J4" s="5">
-        <v>4.8666591750641422E-4</v>
+        <v>-8.1111201239136713E-4</v>
       </c>
       <c r="L4" s="61"/>
       <c r="M4" s="63"/>
@@ -6265,7 +6266,7 @@
         <v>45</v>
       </c>
       <c r="D5" s="18" t="str">
-        <v>obj_00600</v>
+        <v>obj_005e8</v>
       </c>
       <c r="E5" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D5)</f>
@@ -6273,7 +6274,7 @@
       </c>
       <c r="F5" s="17">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>8.9999999999999998E-4</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="G5" s="17" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -6281,14 +6282,14 @@
       </c>
       <c r="H5" s="16">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="I5" s="15">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41953</v>
+        <v>42067</v>
       </c>
       <c r="J5" s="5">
-        <v>7.5580269114009098E-4</v>
+        <v>-1.4081812068952981E-4</v>
       </c>
       <c r="L5" s="61"/>
       <c r="M5" s="63"/>
@@ -6312,7 +6313,7 @@
         <v/>
       </c>
       <c r="D6" s="18" t="str">
-        <v>obj_0060a</v>
+        <v>obj_005e9</v>
       </c>
       <c r="E6" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D6)</f>
@@ -6320,7 +6321,7 @@
       </c>
       <c r="F6" s="17">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>5.9999999999999995E-4</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="G6" s="17" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -6328,14 +6329,14 @@
       </c>
       <c r="H6" s="16">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="I6" s="15">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41960</v>
+        <v>42074</v>
       </c>
       <c r="J6" s="5">
-        <v>5.8016404457291067E-4</v>
+        <v>-5.7031405781589316E-5</v>
       </c>
       <c r="L6" s="61"/>
       <c r="M6" s="63"/>
@@ -6354,7 +6355,7 @@
       <c r="A7" s="63"/>
       <c r="B7" s="63"/>
       <c r="D7" s="18" t="str">
-        <v>obj_00611</v>
+        <v>obj_005f0</v>
       </c>
       <c r="E7" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D7)</f>
@@ -6362,7 +6363,7 @@
       </c>
       <c r="F7" s="17">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>5.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="G7" s="17" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -6370,14 +6371,14 @@
       </c>
       <c r="H7" s="16">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="I7" s="15">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41967</v>
+        <v>42081</v>
       </c>
       <c r="J7" s="5">
-        <v>5.0288254319098553E-4</v>
+        <v>-7.0531479336724941E-5</v>
       </c>
       <c r="L7" s="61"/>
       <c r="M7" s="63"/>
@@ -6396,7 +6397,7 @@
       <c r="A8" s="63"/>
       <c r="B8" s="63"/>
       <c r="D8" s="18" t="str">
-        <v>obj_0060e</v>
+        <v>obj_005e2</v>
       </c>
       <c r="E8" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D8)</f>
@@ -6404,7 +6405,7 @@
       </c>
       <c r="F8" s="17">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>4.0000000000000002E-4</v>
+        <v>0</v>
       </c>
       <c r="G8" s="17" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -6412,14 +6413,14 @@
       </c>
       <c r="H8" s="16">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="I8" s="15">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>41976</v>
+        <v>42088</v>
       </c>
       <c r="J8" s="5">
-        <v>4.1449557027000252E-4</v>
+        <v>-5.4074134078247302E-5</v>
       </c>
       <c r="L8" s="61"/>
       <c r="M8" s="63"/>
@@ -6436,7 +6437,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D9" s="18" t="str">
-        <v>obj_00605</v>
+        <v>obj_005de</v>
       </c>
       <c r="E9" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D9)</f>
@@ -6444,7 +6445,7 @@
       </c>
       <c r="F9" s="17">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>7.000000000000001E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="G9" s="17" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -6452,14 +6453,14 @@
       </c>
       <c r="H9" s="16">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="I9" s="15">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>42009</v>
+        <v>42121</v>
       </c>
       <c r="J9" s="5">
-        <v>6.9606189668811665E-4</v>
+        <v>1.7058747350895883E-4</v>
       </c>
       <c r="L9" s="61"/>
       <c r="M9" s="63"/>
@@ -6476,7 +6477,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D10" s="18" t="str">
-        <v>obj_005ff</v>
+        <v>obj_005e6</v>
       </c>
       <c r="E10" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D10)</f>
@@ -6484,7 +6485,7 @@
       </c>
       <c r="F10" s="17">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>8.9999999999999998E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="G10" s="17" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -6492,14 +6493,14 @@
       </c>
       <c r="H10" s="16">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="I10" s="15">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>42038</v>
+        <v>42149</v>
       </c>
       <c r="J10" s="5">
-        <v>8.9444513255457052E-4</v>
+        <v>4.7794552982458407E-4</v>
       </c>
       <c r="L10" s="61"/>
       <c r="M10" s="63"/>
@@ -6516,7 +6517,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D11" s="18" t="str">
-        <v>obj_00604</v>
+        <v>obj_005ee</v>
       </c>
       <c r="E11" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D11)</f>
@@ -6524,7 +6525,7 @@
       </c>
       <c r="F11" s="17">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>1.1999999999999999E-3</v>
+        <v>6.9999999999999988E-4</v>
       </c>
       <c r="G11" s="17" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -6532,14 +6533,14 @@
       </c>
       <c r="H11" s="16">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="I11" s="15">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>42066</v>
+        <v>42180</v>
       </c>
       <c r="J11" s="5">
-        <v>1.1927193006414842E-3</v>
+        <v>6.8470908259119802E-4</v>
       </c>
       <c r="L11" s="61"/>
       <c r="M11" s="63"/>
@@ -6556,7 +6557,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D12" s="18" t="str">
-        <v>obj_00613</v>
+        <v>obj_005ef</v>
       </c>
       <c r="E12" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D12)</f>
@@ -6564,7 +6565,7 @@
       </c>
       <c r="F12" s="17">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>1.6000000000000001E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="G12" s="17" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -6572,14 +6573,14 @@
       </c>
       <c r="H12" s="16">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="I12" s="15">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>42101</v>
+        <v>42212</v>
       </c>
       <c r="J12" s="5">
-        <v>1.592982773918075E-3</v>
+        <v>8.8994434837320001E-4</v>
       </c>
       <c r="L12" s="61"/>
       <c r="M12" s="63"/>
@@ -6596,7 +6597,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D13" s="18" t="str">
-        <v>obj_0060b</v>
+        <v>obj_005da</v>
       </c>
       <c r="E13" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D13)</f>
@@ -6604,7 +6605,7 @@
       </c>
       <c r="F13" s="17">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>1.9E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="G13" s="17" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -6612,14 +6613,14 @@
       </c>
       <c r="H13" s="16">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="I13" s="15">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>42128</v>
+        <v>42241</v>
       </c>
       <c r="J13" s="5">
-        <v>1.8944133564637153E-3</v>
+        <v>1.2943601099400701E-3</v>
       </c>
       <c r="L13" s="61"/>
       <c r="M13" s="63"/>
@@ -6636,15 +6637,15 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D14" s="18" t="str">
-        <v>obj_00607</v>
+        <v>obj_005d8</v>
       </c>
       <c r="E14" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D14)</f>
-        <v>EUR7MD_Quote</v>
+        <v>EURSTUB_Mx_Quote</v>
       </c>
       <c r="F14" s="17">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>2.0999999999999999E-3</v>
+        <v>1.4709677400000002E-3</v>
       </c>
       <c r="G14" s="17" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -6652,14 +6653,14 @@
       </c>
       <c r="H14" s="16">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="I14" s="15">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>42158</v>
+        <v>42263</v>
       </c>
       <c r="J14" s="5">
-        <v>2.0973650155605493E-3</v>
+        <v>1.4683221803940447E-3</v>
       </c>
       <c r="L14" s="61"/>
       <c r="M14" s="63"/>
@@ -6676,30 +6677,30 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D15" s="18" t="str">
-        <v>obj_005fb</v>
+        <v>obj_00606</v>
       </c>
       <c r="E15" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D15)</f>
-        <v>EURSTUB_Mx_Quote</v>
+        <v>EURFUT3MU5_Quote</v>
       </c>
       <c r="F15" s="17">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>2.378125E-3</v>
-      </c>
-      <c r="G15" s="17" t="str">
+        <v>2.7500000000002522E-4</v>
+      </c>
+      <c r="G15" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
-        <v>--</v>
+        <v>0</v>
       </c>
       <c r="H15" s="16">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41946</v>
+        <v>42263</v>
       </c>
       <c r="I15" s="15">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>42172</v>
+        <v>42354</v>
       </c>
       <c r="J15" s="5">
-        <v>2.3758301936287417E-3</v>
+        <v>1.1026274817595954E-3</v>
       </c>
       <c r="L15" s="61"/>
       <c r="M15" s="63"/>
@@ -6716,15 +6717,15 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="18" t="str">
-        <v>obj_0065b</v>
+        <v>obj_00615</v>
       </c>
       <c r="E16" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D16)</f>
-        <v>EURFUT3MM5_Quote</v>
+        <v>EURFUT3MZ5_Quote</v>
       </c>
       <c r="F16" s="17">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>9.7499999999994813E-4</v>
+        <v>2.2500000000003073E-4</v>
       </c>
       <c r="G16" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -6732,14 +6733,14 @@
       </c>
       <c r="H16" s="16">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>42172</v>
+        <v>42354</v>
       </c>
       <c r="I16" s="15">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>42264</v>
+        <v>42445</v>
       </c>
       <c r="J16" s="5">
-        <v>1.9794268615360394E-3</v>
+        <v>8.9699358974860738E-4</v>
       </c>
       <c r="L16" s="61"/>
       <c r="M16" s="63"/>
@@ -6756,15 +6757,15 @@
     </row>
     <row r="17" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D17" s="18" t="str">
-        <v>obj_0064c</v>
+        <v>obj_00632</v>
       </c>
       <c r="E17" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D17)</f>
-        <v>EURFUT3MU5_Quote</v>
+        <v>EURFUT3MH6_Quote</v>
       </c>
       <c r="F17" s="17">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>1.0249999999999426E-3</v>
+        <v>1.7500000000003624E-4</v>
       </c>
       <c r="G17" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -6772,14 +6773,14 @@
       </c>
       <c r="H17" s="16">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>42263</v>
+        <v>42445</v>
       </c>
       <c r="I17" s="15">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>42354</v>
+        <v>42537</v>
       </c>
       <c r="J17" s="5">
-        <v>1.7750906848047181E-3</v>
+        <v>7.5878865413177808E-4</v>
       </c>
       <c r="L17" s="189"/>
       <c r="M17" s="63"/>
@@ -6796,15 +6797,15 @@
     </row>
     <row r="18" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D18" s="18" t="str">
-        <v>obj_00622</v>
+        <v>obj_005f8</v>
       </c>
       <c r="E18" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D18)</f>
-        <v>EURFUT3MZ5_Quote</v>
+        <v>EURFUT3MM6_Quote</v>
       </c>
       <c r="F18" s="17">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>1.2250000000000316E-3</v>
+        <v>2.2500000000003073E-4</v>
       </c>
       <c r="G18" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -6812,14 +6813,14 @@
       </c>
       <c r="H18" s="16">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>42354</v>
+        <v>42536</v>
       </c>
       <c r="I18" s="15">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>42445</v>
+        <v>42628</v>
       </c>
       <c r="J18" s="5">
-        <v>1.6786145737533299E-3</v>
+        <v>6.7439638257887793E-4</v>
       </c>
       <c r="L18" s="189"/>
       <c r="M18" s="63"/>
@@ -6836,15 +6837,15 @@
     </row>
     <row r="19" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D19" s="18" t="str">
-        <v>obj_0063c</v>
+        <v>obj_005fe</v>
       </c>
       <c r="E19" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D19)</f>
-        <v>EURFUT3MH6_Quote</v>
+        <v>EURFUT3MU6_Quote</v>
       </c>
       <c r="F19" s="17">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>1.4750000000001151E-3</v>
+        <v>3.7499999999990319E-4</v>
       </c>
       <c r="G19" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
@@ -6852,14 +6853,14 @@
       </c>
       <c r="H19" s="16">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>42445</v>
+        <v>42634</v>
       </c>
       <c r="I19" s="15">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>42537</v>
+        <v>42725</v>
       </c>
       <c r="J19" s="5">
-        <v>1.6502553418535661E-3</v>
+        <v>6.3199223896800603E-4</v>
       </c>
       <c r="L19" s="189"/>
       <c r="M19" s="63"/>
@@ -6876,15 +6877,15 @@
     </row>
     <row r="20" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D20" s="18" t="str">
-        <v>obj_00618</v>
+        <v>obj_0063e</v>
       </c>
       <c r="E20" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D20)</f>
-        <v>EURFUT3MM6_Quote</v>
+        <v>EURFUT3MZ6_Quote</v>
       </c>
       <c r="F20" s="17">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>1.7249999999999766E-3</v>
+        <v>6.2499999999998668E-4</v>
       </c>
       <c r="G20" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -6892,14 +6893,14 @@
       </c>
       <c r="H20" s="16">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>42536</v>
+        <v>42725</v>
       </c>
       <c r="I20" s="15">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>42628</v>
+        <v>42815</v>
       </c>
       <c r="J20" s="5">
-        <v>1.6637077057873638E-3</v>
+        <v>6.3218707829531238E-4</v>
       </c>
       <c r="L20" s="61"/>
       <c r="M20" s="63"/>
@@ -6916,15 +6917,15 @@
     </row>
     <row r="21" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D21" s="18" t="str">
-        <v>obj_0062c</v>
+        <v>obj_00611</v>
       </c>
       <c r="E21" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D21)</f>
-        <v>EURFUT3MU6_Quote</v>
+        <v>EURAB6E3Y_Quote</v>
       </c>
       <c r="F21" s="17">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>2.0499999999999963E-3</v>
+        <v>1.5799999999999998E-3</v>
       </c>
       <c r="G21" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -6932,14 +6933,14 @@
       </c>
       <c r="H21" s="16">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>42634</v>
+        <v>42060</v>
       </c>
       <c r="I21" s="15">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>42725</v>
+        <v>43157</v>
       </c>
       <c r="J21" s="5">
-        <v>1.7146328503492858E-3</v>
+        <v>1.5927283534070316E-3</v>
       </c>
       <c r="L21" s="61"/>
       <c r="M21" s="63"/>
@@ -6956,15 +6957,15 @@
     </row>
     <row r="22" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D22" s="18" t="str">
-        <v>obj_00628</v>
+        <v>obj_00633</v>
       </c>
       <c r="E22" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D22)</f>
-        <v>EURAB6E3Y_Quote</v>
+        <v>EURAB6E4Y_Quote</v>
       </c>
       <c r="F22" s="17">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>2.9300000000000003E-3</v>
+        <v>2.2100000000000002E-3</v>
       </c>
       <c r="G22" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -6972,14 +6973,14 @@
       </c>
       <c r="H22" s="16">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="I22" s="15">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>43042</v>
+        <v>43521</v>
       </c>
       <c r="J22" s="5">
-        <v>2.9175703563101619E-3</v>
+        <v>2.2192626010371819E-3</v>
       </c>
       <c r="L22" s="61"/>
       <c r="M22" s="63"/>
@@ -6996,15 +6997,15 @@
     </row>
     <row r="23" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D23" s="18" t="str">
-        <v>obj_00631</v>
+        <v>obj_00605</v>
       </c>
       <c r="E23" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D23)</f>
-        <v>EURAB6E4Y_Quote</v>
+        <v>EURAB6E5Y_Quote</v>
       </c>
       <c r="F23" s="17">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>3.7699999999999999E-3</v>
+        <v>2.9800000000000004E-3</v>
       </c>
       <c r="G23" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -7012,14 +7013,14 @@
       </c>
       <c r="H23" s="16">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="I23" s="15">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>43409</v>
+        <v>43886</v>
       </c>
       <c r="J23" s="5">
-        <v>3.7594794549473481E-3</v>
+        <v>2.9892626881744015E-3</v>
       </c>
       <c r="L23" s="61"/>
       <c r="M23" s="63"/>
@@ -7036,15 +7037,15 @@
     </row>
     <row r="24" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D24" s="18" t="str">
-        <v>obj_0063a</v>
+        <v>obj_0061b</v>
       </c>
       <c r="E24" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D24)</f>
-        <v>EURAB6E5Y_Quote</v>
+        <v>EURAB6E6Y_Quote</v>
       </c>
       <c r="F24" s="17">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>4.7999999999999996E-3</v>
+        <v>3.82E-3</v>
       </c>
       <c r="G24" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -7052,14 +7053,14 @@
       </c>
       <c r="H24" s="16">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="I24" s="15">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>43773</v>
+        <v>44252</v>
       </c>
       <c r="J24" s="5">
-        <v>4.7946401468160465E-3</v>
+        <v>3.8313008064499361E-3</v>
       </c>
       <c r="L24" s="61"/>
       <c r="M24" s="63"/>
@@ -7076,15 +7077,15 @@
     </row>
     <row r="25" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D25" s="18" t="str">
-        <v>obj_00659</v>
+        <v>obj_0063b</v>
       </c>
       <c r="E25" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D25)</f>
-        <v>EURAB6E6Y_Quote</v>
+        <v>EURAB6E7Y_Quote</v>
       </c>
       <c r="F25" s="17">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>5.9499999999999996E-3</v>
+        <v>4.7199999999999994E-3</v>
       </c>
       <c r="G25" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -7092,14 +7093,14 @@
       </c>
       <c r="H25" s="16">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="I25" s="15">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>44138</v>
+        <v>44617</v>
       </c>
       <c r="J25" s="5">
-        <v>5.9530315769913793E-3</v>
+        <v>4.739767218182556E-3</v>
       </c>
       <c r="L25" s="61"/>
       <c r="M25" s="63"/>
@@ -7116,15 +7117,15 @@
     </row>
     <row r="26" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D26" s="18" t="str">
-        <v>obj_00624</v>
+        <v>obj_005f9</v>
       </c>
       <c r="E26" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D26)</f>
-        <v>EURAB6E7Y_Quote</v>
+        <v>EURAB6E8Y_Quote</v>
       </c>
       <c r="F26" s="17">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>7.2299999999999994E-3</v>
+        <v>5.6099999999999995E-3</v>
       </c>
       <c r="G26" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -7132,14 +7133,14 @@
       </c>
       <c r="H26" s="16">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="I26" s="15">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>44503</v>
+        <v>44984</v>
       </c>
       <c r="J26" s="5">
-        <v>7.2535930901784697E-3</v>
+        <v>5.6430542400344305E-3</v>
       </c>
       <c r="L26" s="61"/>
       <c r="M26" s="63"/>
@@ -7156,15 +7157,15 @@
     </row>
     <row r="27" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D27" s="18" t="str">
-        <v>obj_00643</v>
+        <v>obj_00638</v>
       </c>
       <c r="E27" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D27)</f>
-        <v>EURAB6E8Y_Quote</v>
+        <v>EURAB6E9Y_Quote</v>
       </c>
       <c r="F27" s="17">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>8.5500000000000003E-3</v>
+        <v>6.4600000000000005E-3</v>
       </c>
       <c r="G27" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -7172,14 +7173,14 @@
       </c>
       <c r="H27" s="16">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="I27" s="15">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>44868</v>
+        <v>45348</v>
       </c>
       <c r="J27" s="5">
-        <v>8.6054654469475168E-3</v>
+        <v>6.5108332228394471E-3</v>
       </c>
       <c r="L27" s="61"/>
       <c r="M27" s="63"/>
@@ -7196,15 +7197,15 @@
     </row>
     <row r="28" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D28" s="18" t="str">
-        <v>obj_00654</v>
+        <v>obj_00602</v>
       </c>
       <c r="E28" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D28)</f>
-        <v>EURAB6E9Y_Quote</v>
+        <v>EURAB6E10Y_Quote</v>
       </c>
       <c r="F28" s="17">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>9.8099999999999993E-3</v>
+        <v>7.2300000000000012E-3</v>
       </c>
       <c r="G28" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -7212,14 +7213,14 @@
       </c>
       <c r="H28" s="16">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="I28" s="15">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>45233</v>
+        <v>45713</v>
       </c>
       <c r="J28" s="5">
-        <v>9.907173365516643E-3</v>
+        <v>7.2994850885665635E-3</v>
       </c>
       <c r="L28" s="61"/>
       <c r="M28" s="63"/>
@@ -7236,15 +7237,15 @@
     </row>
     <row r="29" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D29" s="18" t="str">
-        <v>obj_00636</v>
+        <v>obj_005fa</v>
       </c>
       <c r="E29" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D29)</f>
-        <v>EURAB6E10Y_Quote</v>
+        <v>EURAB6E11Y_Quote</v>
       </c>
       <c r="F29" s="17">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>1.0970000000000001E-2</v>
+        <v>7.9299999999999995E-3</v>
       </c>
       <c r="G29" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
@@ -7252,14 +7253,14 @@
       </c>
       <c r="H29" s="16">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="I29" s="15">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>45600</v>
+        <v>46078</v>
       </c>
       <c r="J29" s="5">
-        <v>1.1113385138640727E-2</v>
+        <v>8.0224946022449568E-3</v>
       </c>
       <c r="L29" s="61"/>
       <c r="M29" s="63"/>
@@ -7276,15 +7277,15 @@
     </row>
     <row r="30" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D30" s="18" t="str">
-        <v>obj_00649</v>
+        <v>obj_0062a</v>
       </c>
       <c r="E30" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D30)</f>
-        <v>EURAB6E11Y_Quote</v>
+        <v>EURAB6E12Y_Quote</v>
       </c>
       <c r="F30" s="17">
         <f>_xll.qlRateHelperRate($D30)</f>
-        <v>1.201E-2</v>
+        <v>8.5500000000000003E-3</v>
       </c>
       <c r="G30" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
@@ -7292,14 +7293,14 @@
       </c>
       <c r="H30" s="16">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="I30" s="15">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>45964</v>
+        <v>46443</v>
       </c>
       <c r="J30" s="5">
-        <v>1.2207325981747275E-2</v>
+        <v>8.6663862812587887E-3</v>
       </c>
       <c r="L30" s="61"/>
       <c r="M30" s="63"/>
@@ -7316,15 +7317,15 @@
     </row>
     <row r="31" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D31" s="18" t="str">
-        <v>obj_0062b</v>
+        <v>obj_00625</v>
       </c>
       <c r="E31" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D31)</f>
-        <v>EURAB6E12Y_Quote</v>
+        <v>EURAB6E13Y_Quote</v>
       </c>
       <c r="F31" s="17">
         <f>_xll.qlRateHelperRate($D31)</f>
-        <v>1.2920000000000001E-2</v>
+        <v>9.1000000000000004E-3</v>
       </c>
       <c r="G31" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
@@ -7332,14 +7333,14 @@
       </c>
       <c r="H31" s="16">
         <f>_xll.qlRateHelperEarliestDate($D31)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="I31" s="15">
         <f>_xll.qlRateHelperLatestDate($D31)</f>
-        <v>46329</v>
+        <v>46808</v>
       </c>
       <c r="J31" s="5">
-        <v>1.3172359456081278E-2</v>
+        <v>9.2405804176646459E-3</v>
       </c>
       <c r="L31" s="61"/>
       <c r="M31" s="63"/>
@@ -7356,15 +7357,15 @@
     </row>
     <row r="32" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D32" s="18" t="str">
-        <v>obj_0065c</v>
+        <v>obj_0062e</v>
       </c>
       <c r="E32" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D32)</f>
-        <v>EURAB6E13Y_Quote</v>
+        <v>EURAB6E14Y_Quote</v>
       </c>
       <c r="F32" s="17">
         <f>_xll.qlRateHelperRate($D32)</f>
-        <v>1.372E-2</v>
+        <v>9.5700000000000004E-3</v>
       </c>
       <c r="G32" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D32)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D32)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D32)),_xll.qlSwapRateHelperSpread($D32))</f>
@@ -7372,14 +7373,14 @@
       </c>
       <c r="H32" s="16">
         <f>_xll.qlRateHelperEarliestDate($D32)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="I32" s="15">
         <f>_xll.qlRateHelperLatestDate($D32)</f>
-        <v>46694</v>
+        <v>47175</v>
       </c>
       <c r="J32" s="5">
-        <v>1.4027452125810025E-2</v>
+        <v>9.7312163578957625E-3</v>
       </c>
       <c r="L32" s="61"/>
       <c r="M32" s="63"/>
@@ -7396,15 +7397,15 @@
     </row>
     <row r="33" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D33" s="18" t="str">
-        <v>obj_0063f</v>
+        <v>obj_00613</v>
       </c>
       <c r="E33" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D33)</f>
-        <v>EURAB6E14Y_Quote</v>
+        <v>EURAB6E15Y_Quote</v>
       </c>
       <c r="F33" s="17">
         <f>_xll.qlRateHelperRate($D33)</f>
-        <v>1.4419999999999999E-2</v>
+        <v>9.9899999999999989E-3</v>
       </c>
       <c r="G33" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D33)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D33)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D33)),_xll.qlSwapRateHelperSpread($D33))</f>
@@ -7412,14 +7413,14 @@
       </c>
       <c r="H33" s="16">
         <f>_xll.qlRateHelperEarliestDate($D33)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="I33" s="15">
         <f>_xll.qlRateHelperLatestDate($D33)</f>
-        <v>47060</v>
+        <v>47539</v>
       </c>
       <c r="J33" s="5">
-        <v>1.477814394040553E-2</v>
+        <v>1.0173488870288815E-2</v>
       </c>
       <c r="L33" s="61"/>
       <c r="M33" s="63"/>
@@ -7436,15 +7437,15 @@
     </row>
     <row r="34" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D34" s="18" t="str">
-        <v>obj_00637</v>
+        <v>obj_005fc</v>
       </c>
       <c r="E34" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D34)</f>
-        <v>EURAB6E15Y_Quote</v>
+        <v>EURAB6E16Y_Quote</v>
       </c>
       <c r="F34" s="17">
         <f>_xll.qlRateHelperRate($D34)</f>
-        <v>1.502E-2</v>
+        <v>1.0369999999999999E-2</v>
       </c>
       <c r="G34" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D34)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D34)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D34)),_xll.qlSwapRateHelperSpread($D34))</f>
@@ -7452,14 +7453,14 @@
       </c>
       <c r="H34" s="16">
         <f>_xll.qlRateHelperEarliestDate($D34)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="I34" s="15">
         <f>_xll.qlRateHelperLatestDate($D34)</f>
-        <v>47427</v>
+        <v>47904</v>
       </c>
       <c r="J34" s="5">
-        <v>1.5427477176694229E-2</v>
+        <v>1.05755171934762E-2</v>
       </c>
       <c r="L34" s="61"/>
       <c r="M34" s="63"/>
@@ -7476,15 +7477,15 @@
     </row>
     <row r="35" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D35" s="18" t="str">
-        <v>obj_00657</v>
+        <v>obj_00629</v>
       </c>
       <c r="E35" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D35)</f>
-        <v>EURAB6E16Y_Quote</v>
+        <v>EURAB6E17Y_Quote</v>
       </c>
       <c r="F35" s="17">
         <f>_xll.qlRateHelperRate($D35)</f>
-        <v>1.555E-2</v>
+        <v>1.072E-2</v>
       </c>
       <c r="G35" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D35)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D35)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D35)),_xll.qlSwapRateHelperSpread($D35))</f>
@@ -7492,14 +7493,14 @@
       </c>
       <c r="H35" s="16">
         <f>_xll.qlRateHelperEarliestDate($D35)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="I35" s="15">
         <f>_xll.qlRateHelperLatestDate($D35)</f>
-        <v>47791</v>
+        <v>48269</v>
       </c>
       <c r="J35" s="5">
-        <v>1.600481212244367E-2</v>
+        <v>1.0947770294584012E-2</v>
       </c>
       <c r="L35" s="61"/>
       <c r="M35" s="63"/>
@@ -7516,15 +7517,15 @@
     </row>
     <row r="36" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D36" s="18" t="str">
-        <v>obj_00640</v>
+        <v>obj_00616</v>
       </c>
       <c r="E36" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D36)</f>
-        <v>EURAB6E17Y_Quote</v>
+        <v>EURAB6E18Y_Quote</v>
       </c>
       <c r="F36" s="17">
         <f>_xll.qlRateHelperRate($D36)</f>
-        <v>1.601E-2</v>
+        <v>1.1019999999999999E-2</v>
       </c>
       <c r="G36" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D36)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D36)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D36)),_xll.qlSwapRateHelperSpread($D36))</f>
@@ -7532,14 +7533,14 @@
       </c>
       <c r="H36" s="16">
         <f>_xll.qlRateHelperEarliestDate($D36)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="I36" s="15">
         <f>_xll.qlRateHelperLatestDate($D36)</f>
-        <v>48155</v>
+        <v>48635</v>
       </c>
       <c r="J36" s="5">
-        <v>1.6507958891141161E-2</v>
+        <v>1.1265616938842055E-2</v>
       </c>
       <c r="L36" s="61"/>
       <c r="M36" s="63"/>
@@ -7556,15 +7557,15 @@
     </row>
     <row r="37" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D37" s="18" t="str">
-        <v>obj_0061a</v>
+        <v>obj_00618</v>
       </c>
       <c r="E37" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D37)</f>
-        <v>EURAB6E18Y_Quote</v>
+        <v>EURAB6E19Y_Quote</v>
       </c>
       <c r="F37" s="17">
         <f>_xll.qlRateHelperRate($D37)</f>
-        <v>1.6400000000000001E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="G37" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D37)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D37)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D37)),_xll.qlSwapRateHelperSpread($D37))</f>
@@ -7572,14 +7573,14 @@
       </c>
       <c r="H37" s="16">
         <f>_xll.qlRateHelperEarliestDate($D37)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="I37" s="15">
         <f>_xll.qlRateHelperLatestDate($D37)</f>
-        <v>48521</v>
+        <v>49002</v>
       </c>
       <c r="J37" s="5">
-        <v>1.6932296326169584E-2</v>
+        <v>1.1565481156296308E-2</v>
       </c>
       <c r="L37" s="61"/>
       <c r="M37" s="63"/>
@@ -7596,15 +7597,15 @@
     </row>
     <row r="38" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D38" s="18" t="str">
-        <v>obj_00638</v>
+        <v>obj_00614</v>
       </c>
       <c r="E38" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D38)</f>
-        <v>EURAB6E19Y_Quote</v>
+        <v>EURAB6E20Y_Quote</v>
       </c>
       <c r="F38" s="17">
         <f>_xll.qlRateHelperRate($D38)</f>
-        <v>1.6739999999999998E-2</v>
+        <v>1.153E-2</v>
       </c>
       <c r="G38" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D38)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D38)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D38)),_xll.qlSwapRateHelperSpread($D38))</f>
@@ -7612,14 +7613,14 @@
       </c>
       <c r="H38" s="16">
         <f>_xll.qlRateHelperEarliestDate($D38)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="I38" s="15">
         <f>_xll.qlRateHelperLatestDate($D38)</f>
-        <v>48886</v>
+        <v>49366</v>
       </c>
       <c r="J38" s="5">
-        <v>1.7305261329958164E-2</v>
+        <v>1.1811174725822968E-2</v>
       </c>
       <c r="L38" s="61"/>
       <c r="M38" s="63"/>
@@ -7636,15 +7637,15 @@
     </row>
     <row r="39" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D39" s="18" t="str">
-        <v>obj_00645</v>
+        <v>obj_0060d</v>
       </c>
       <c r="E39" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D39)</f>
-        <v>EURAB6E20Y_Quote</v>
+        <v>EURAB6E21Y_Quote</v>
       </c>
       <c r="F39" s="17">
         <f>_xll.qlRateHelperRate($D39)</f>
-        <v>1.702E-2</v>
+        <v>1.1730000000000001E-2</v>
       </c>
       <c r="G39" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D39)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D39)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D39)),_xll.qlSwapRateHelperSpread($D39))</f>
@@ -7652,14 +7653,14 @@
       </c>
       <c r="H39" s="16">
         <f>_xll.qlRateHelperEarliestDate($D39)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="I39" s="15">
         <f>_xll.qlRateHelperLatestDate($D39)</f>
-        <v>49251</v>
+        <v>49730</v>
       </c>
       <c r="J39" s="5">
-        <v>1.7610597947630247E-2</v>
+        <v>1.2024694255923365E-2</v>
       </c>
       <c r="L39" s="61"/>
       <c r="M39" s="63"/>
@@ -7676,15 +7677,15 @@
     </row>
     <row r="40" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D40" s="18" t="str">
-        <v>obj_00658</v>
+        <v>obj_005fd</v>
       </c>
       <c r="E40" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D40)</f>
-        <v>EURAB6E21Y_Quote</v>
+        <v>EURAB6E22Y_Quote</v>
       </c>
       <c r="F40" s="17">
         <f>_xll.qlRateHelperRate($D40)</f>
-        <v>1.7260000000000001E-2</v>
+        <v>1.1899999999999999E-2</v>
       </c>
       <c r="G40" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D40)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D40)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D40)),_xll.qlSwapRateHelperSpread($D40))</f>
@@ -7692,14 +7693,14 @@
       </c>
       <c r="H40" s="16">
         <f>_xll.qlRateHelperEarliestDate($D40)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="I40" s="15">
         <f>_xll.qlRateHelperLatestDate($D40)</f>
-        <v>49618</v>
+        <v>50096</v>
       </c>
       <c r="J40" s="5">
-        <v>1.7871174350524242E-2</v>
+        <v>1.2203943393570085E-2</v>
       </c>
       <c r="L40" s="61"/>
       <c r="M40" s="63"/>
@@ -7716,15 +7717,15 @@
     </row>
     <row r="41" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D41" s="18" t="str">
-        <v>obj_0065e</v>
+        <v>obj_005f4</v>
       </c>
       <c r="E41" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D41)</f>
-        <v>EURAB6E22Y_Quote</v>
+        <v>EURAB6E23Y_Quote</v>
       </c>
       <c r="F41" s="17">
         <f>_xll.qlRateHelperRate($D41)</f>
-        <v>1.745E-2</v>
+        <v>1.205E-2</v>
       </c>
       <c r="G41" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D41)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D41)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D41)),_xll.qlSwapRateHelperSpread($D41))</f>
@@ -7732,14 +7733,14 @@
       </c>
       <c r="H41" s="16">
         <f>_xll.qlRateHelperEarliestDate($D41)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="I41" s="15">
         <f>_xll.qlRateHelperLatestDate($D41)</f>
-        <v>49982</v>
+        <v>50461</v>
       </c>
       <c r="J41" s="5">
-        <v>1.8071675268233632E-2</v>
+        <v>1.2363240362118512E-2</v>
       </c>
       <c r="L41" s="61"/>
       <c r="M41" s="63"/>
@@ -7756,15 +7757,15 @@
     </row>
     <row r="42" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D42" s="18" t="str">
-        <v>obj_0061e</v>
+        <v>obj_00622</v>
       </c>
       <c r="E42" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D42)</f>
-        <v>EURAB6E23Y_Quote</v>
+        <v>EURAB6E24Y_Quote</v>
       </c>
       <c r="F42" s="17">
         <f>_xll.qlRateHelperRate($D42)</f>
-        <v>1.7610000000000001E-2</v>
+        <v>1.218E-2</v>
       </c>
       <c r="G42" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D42)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D42)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D42)),_xll.qlSwapRateHelperSpread($D42))</f>
@@ -7772,14 +7773,14 @@
       </c>
       <c r="H42" s="16">
         <f>_xll.qlRateHelperEarliestDate($D42)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="I42" s="15">
         <f>_xll.qlRateHelperLatestDate($D42)</f>
-        <v>50347</v>
+        <v>50826</v>
       </c>
       <c r="J42" s="5">
-        <v>1.8240096072751184E-2</v>
+        <v>1.2500656538998374E-2</v>
       </c>
       <c r="L42" s="61"/>
       <c r="M42" s="63"/>
@@ -7796,15 +7797,15 @@
     </row>
     <row r="43" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D43" s="18" t="str">
-        <v>obj_0064d</v>
+        <v>obj_00610</v>
       </c>
       <c r="E43" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D43)</f>
-        <v>EURAB6E24Y_Quote</v>
+        <v>EURAB6E25Y_Quote</v>
       </c>
       <c r="F43" s="17">
         <f>_xll.qlRateHelperRate($D43)</f>
-        <v>1.7739999999999999E-2</v>
+        <v>1.23E-2</v>
       </c>
       <c r="G43" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D43)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D43)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D43)),_xll.qlSwapRateHelperSpread($D43))</f>
@@ -7812,14 +7813,14 @@
       </c>
       <c r="H43" s="16">
         <f>_xll.qlRateHelperEarliestDate($D43)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="I43" s="15">
         <f>_xll.qlRateHelperLatestDate($D43)</f>
-        <v>50712</v>
+        <v>51193</v>
       </c>
       <c r="J43" s="5">
-        <v>1.8373494868175248E-2</v>
+        <v>1.2627691117531715E-2</v>
       </c>
       <c r="L43" s="61"/>
       <c r="M43" s="63"/>
@@ -7836,15 +7837,15 @@
     </row>
     <row r="44" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D44" s="18" t="str">
-        <v>obj_00620</v>
+        <v>obj_00617</v>
       </c>
       <c r="E44" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D44)</f>
-        <v>EURAB6E25Y_Quote</v>
+        <v>EURAB6E26Y_Quote</v>
       </c>
       <c r="F44" s="17">
         <f>_xll.qlRateHelperRate($D44)</f>
-        <v>1.7849999999999998E-2</v>
+        <v>1.2410000000000001E-2</v>
       </c>
       <c r="G44" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D44)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D44)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D44)),_xll.qlSwapRateHelperSpread($D44))</f>
@@ -7852,14 +7853,14 @@
       </c>
       <c r="H44" s="16">
         <f>_xll.qlRateHelperEarliestDate($D44)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="I44" s="15">
         <f>_xll.qlRateHelperLatestDate($D44)</f>
-        <v>51077</v>
+        <v>51557</v>
       </c>
       <c r="J44" s="5">
-        <v>1.8484023501684696E-2</v>
+        <v>1.2743017657326472E-2</v>
       </c>
       <c r="L44" s="61"/>
       <c r="M44" s="63"/>
@@ -7876,15 +7877,15 @@
     </row>
     <row r="45" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D45" s="18" t="str">
-        <v>obj_00630</v>
+        <v>obj_00636</v>
       </c>
       <c r="E45" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D45)</f>
-        <v>EURAB6E26Y_Quote</v>
+        <v>EURAB6E27Y_Quote</v>
       </c>
       <c r="F45" s="17">
         <f>_xll.qlRateHelperRate($D45)</f>
-        <v>1.7940000000000001E-2</v>
+        <v>1.2509999999999999E-2</v>
       </c>
       <c r="G45" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D45)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D45)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D45)),_xll.qlSwapRateHelperSpread($D45))</f>
@@ -7892,14 +7893,14 @@
       </c>
       <c r="H45" s="16">
         <f>_xll.qlRateHelperEarliestDate($D45)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="I45" s="15">
         <f>_xll.qlRateHelperLatestDate($D45)</f>
-        <v>51445</v>
+        <v>51922</v>
       </c>
       <c r="J45" s="5">
-        <v>1.8569024746196663E-2</v>
+        <v>1.2848942413920745E-2</v>
       </c>
       <c r="L45" s="61"/>
       <c r="M45" s="63"/>
@@ -7916,15 +7917,15 @@
     </row>
     <row r="46" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D46" s="18" t="str">
-        <v>obj_00623</v>
+        <v>obj_005f7</v>
       </c>
       <c r="E46" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D46)</f>
-        <v>EURAB6E27Y_Quote</v>
+        <v>EURAB6E28Y_Quote</v>
       </c>
       <c r="F46" s="17">
         <f>_xll.qlRateHelperRate($D46)</f>
-        <v>1.8020000000000001E-2</v>
+        <v>1.26E-2</v>
       </c>
       <c r="G46" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D46)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D46)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D46)),_xll.qlSwapRateHelperSpread($D46))</f>
@@ -7932,14 +7933,14 @@
       </c>
       <c r="H46" s="16">
         <f>_xll.qlRateHelperEarliestDate($D46)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="I46" s="15">
         <f>_xll.qlRateHelperLatestDate($D46)</f>
-        <v>51809</v>
+        <v>52287</v>
       </c>
       <c r="J46" s="5">
-        <v>1.8645534152719901E-2</v>
+        <v>1.2943966118771244E-2</v>
       </c>
       <c r="L46" s="61"/>
       <c r="M46" s="63"/>
@@ -7956,15 +7957,15 @@
     </row>
     <row r="47" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D47" s="18" t="str">
-        <v>obj_00635</v>
+        <v>obj_0063d</v>
       </c>
       <c r="E47" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D47)</f>
-        <v>EURAB6E28Y_Quote</v>
+        <v>EURAB6E29Y_Quote</v>
       </c>
       <c r="F47" s="17">
         <f>_xll.qlRateHelperRate($D47)</f>
-        <v>1.8079999999999999E-2</v>
+        <v>1.268E-2</v>
       </c>
       <c r="G47" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D47)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D47)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D47)),_xll.qlSwapRateHelperSpread($D47))</f>
@@ -7972,14 +7973,14 @@
       </c>
       <c r="H47" s="16">
         <f>_xll.qlRateHelperEarliestDate($D47)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="I47" s="15">
         <f>_xll.qlRateHelperLatestDate($D47)</f>
-        <v>52173</v>
+        <v>52652</v>
       </c>
       <c r="J47" s="5">
-        <v>1.86975964907133E-2</v>
+        <v>1.302789726170845E-2</v>
       </c>
       <c r="L47" s="61"/>
       <c r="M47" s="63"/>
@@ -7996,15 +7997,15 @@
     </row>
     <row r="48" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D48" s="18" t="str">
-        <v>obj_0064e</v>
+        <v>obj_00641</v>
       </c>
       <c r="E48" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D48)</f>
-        <v>EURAB6E29Y_Quote</v>
+        <v>EURAB6E30Y_Quote</v>
       </c>
       <c r="F48" s="17">
         <f>_xll.qlRateHelperRate($D48)</f>
-        <v>1.814E-2</v>
+        <v>1.2760000000000001E-2</v>
       </c>
       <c r="G48" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D48)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D48)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D48)),_xll.qlSwapRateHelperSpread($D48))</f>
@@ -8012,14 +8013,14 @@
       </c>
       <c r="H48" s="16">
         <f>_xll.qlRateHelperEarliestDate($D48)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="I48" s="15">
         <f>_xll.qlRateHelperLatestDate($D48)</f>
-        <v>52538</v>
+        <v>53020</v>
       </c>
       <c r="J48" s="5">
-        <v>1.8751633518935152E-2</v>
+        <v>1.3111719563976556E-2</v>
       </c>
       <c r="L48" s="61"/>
       <c r="M48" s="63"/>
@@ -8036,15 +8037,15 @@
     </row>
     <row r="49" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D49" s="18" t="str">
-        <v>obj_00633</v>
+        <v>obj_005f3</v>
       </c>
       <c r="E49" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D49)</f>
-        <v>EURAB6E30Y_Quote</v>
+        <v>EURAB6E35Y_Quote</v>
       </c>
       <c r="F49" s="17">
         <f>_xll.qlRateHelperRate($D49)</f>
-        <v>1.8200000000000001E-2</v>
+        <v>1.3010000000000001E-2</v>
       </c>
       <c r="G49" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D49)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D49)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D49)),_xll.qlSwapRateHelperSpread($D49))</f>
@@ -8052,14 +8053,14 @@
       </c>
       <c r="H49" s="16">
         <f>_xll.qlRateHelperEarliestDate($D49)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="I49" s="15">
         <f>_xll.qlRateHelperLatestDate($D49)</f>
-        <v>52904</v>
+        <v>54844</v>
       </c>
       <c r="J49" s="5">
-        <v>1.880588330652485E-2</v>
+        <v>1.3362816451721571E-2</v>
       </c>
       <c r="L49" s="61"/>
       <c r="M49" s="63"/>
@@ -8076,15 +8077,15 @@
     </row>
     <row r="50" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D50" s="18" t="str">
-        <v>obj_00617</v>
+        <v>obj_00621</v>
       </c>
       <c r="E50" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D50)</f>
-        <v>EURAB6E35Y_Quote</v>
+        <v>EURAB6E40Y_Quote</v>
       </c>
       <c r="F50" s="17">
         <f>_xll.qlRateHelperRate($D50)</f>
-        <v>1.848E-2</v>
+        <v>1.3119999999999998E-2</v>
       </c>
       <c r="G50" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D50)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D50)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D50)),_xll.qlSwapRateHelperSpread($D50))</f>
@@ -8092,14 +8093,14 @@
       </c>
       <c r="H50" s="16">
         <f>_xll.qlRateHelperEarliestDate($D50)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="I50" s="15">
         <f>_xll.qlRateHelperLatestDate($D50)</f>
-        <v>54730</v>
+        <v>56670</v>
       </c>
       <c r="J50" s="5">
-        <v>1.9082161781872164E-2</v>
+        <v>1.3450735814563609E-2</v>
       </c>
       <c r="L50" s="61"/>
       <c r="M50" s="63"/>
@@ -8116,15 +8117,15 @@
     </row>
     <row r="51" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D51" s="18" t="str">
-        <v>obj_0062a</v>
+        <v>obj_005fb</v>
       </c>
       <c r="E51" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D51)</f>
-        <v>EURAB6E40Y_Quote</v>
+        <v>EURAB6E50Y_Quote</v>
       </c>
       <c r="F51" s="17">
         <f>_xll.qlRateHelperRate($D51)</f>
-        <v>1.873E-2</v>
+        <v>1.286E-2</v>
       </c>
       <c r="G51" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D51)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D51)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D51)),_xll.qlSwapRateHelperSpread($D51))</f>
@@ -8132,14 +8133,14 @@
       </c>
       <c r="H51" s="16">
         <f>_xll.qlRateHelperEarliestDate($D51)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="I51" s="15">
         <f>_xll.qlRateHelperLatestDate($D51)</f>
-        <v>56556</v>
+        <v>60323</v>
       </c>
       <c r="J51" s="5">
-        <v>1.9351459443300648E-2</v>
+        <v>1.3015455902829556E-2</v>
       </c>
       <c r="L51" s="61"/>
       <c r="M51" s="63"/>
@@ -8156,15 +8157,15 @@
     </row>
     <row r="52" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D52" s="18" t="str">
-        <v>obj_00650</v>
+        <v>obj_00631</v>
       </c>
       <c r="E52" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D52)</f>
-        <v>EURAB6E50Y_Quote</v>
+        <v>EURAB6E60Y_Quote</v>
       </c>
       <c r="F52" s="17">
         <f>_xll.qlRateHelperRate($D52)</f>
-        <v>1.8839999999999999E-2</v>
+        <v>1.2709999999999999E-2</v>
       </c>
       <c r="G52" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D52)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D52)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D52)),_xll.qlSwapRateHelperSpread($D52))</f>
@@ -8172,14 +8173,14 @@
       </c>
       <c r="H52" s="16">
         <f>_xll.qlRateHelperEarliestDate($D52)</f>
-        <v>41946</v>
+        <v>42060</v>
       </c>
       <c r="I52" s="15">
         <f>_xll.qlRateHelperLatestDate($D52)</f>
-        <v>60209</v>
+        <v>63975</v>
       </c>
       <c r="J52" s="5">
-        <v>1.9360823826020605E-2</v>
+        <v>1.2761612971503888E-2</v>
       </c>
       <c r="L52" s="61"/>
       <c r="M52" s="63"/>
@@ -8195,31 +8196,31 @@
       <c r="W52" s="63"/>
     </row>
     <row r="53" spans="4:23" x14ac:dyDescent="0.2">
-      <c r="D53" s="18" t="str">
-        <v>obj_0061b</v>
-      </c>
-      <c r="E53" s="18" t="str">
+      <c r="D53" s="18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E53" s="18" t="e">
         <f>_xll.qlRateHelperQuoteName(D53)</f>
-        <v>EURAB6E60Y_Quote</v>
-      </c>
-      <c r="F53" s="17">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F53" s="17" t="e">
         <f>_xll.qlRateHelperRate($D53)</f>
-        <v>1.8970000000000001E-2</v>
-      </c>
-      <c r="G53" s="17">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G53" s="17" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D53)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D53)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D53)),_xll.qlSwapRateHelperSpread($D53))</f>
-        <v>0</v>
-      </c>
-      <c r="H53" s="16">
+        <v>--</v>
+      </c>
+      <c r="H53" s="16" t="e">
         <f>_xll.qlRateHelperEarliestDate($D53)</f>
-        <v>41946</v>
-      </c>
-      <c r="I53" s="15">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I53" s="15" t="e">
         <f>_xll.qlRateHelperLatestDate($D53)</f>
-        <v>63863</v>
-      </c>
-      <c r="J53" s="5">
-        <v>1.9470318614216137E-2</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J53" s="5" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L53" s="154"/>
       <c r="M53" s="63"/>
@@ -10462,7 +10463,7 @@
       </c>
       <c r="E3" s="71" t="str">
         <f>_xll.qlDepositRateHelper(,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00615#0000</v>
+        <v>obj_005f2#0000</v>
       </c>
       <c r="F3" s="76" t="str">
         <f>_xll.ohRangeRetrieveError(E3)</f>
@@ -10484,7 +10485,7 @@
       </c>
       <c r="E4" s="165" t="str">
         <f>_xll.qlFraRateHelper(,D4,"1D",C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0060f#0000</v>
+        <v>obj_005e5#0000</v>
       </c>
       <c r="F4" s="76" t="str">
         <f>_xll.ohRangeRetrieveError(E4)</f>
@@ -10506,7 +10507,7 @@
       </c>
       <c r="E5" s="165" t="str">
         <f>_xll.qlFraRateHelper(,D5,"2D",C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00602#0000</v>
+        <v>obj_005d9#0000</v>
       </c>
       <c r="F5" s="76" t="str">
         <f>_xll.ohRangeRetrieveError(E5)</f>
@@ -10529,7 +10530,7 @@
       </c>
       <c r="E6" s="71" t="str">
         <f>_xll.qlDepositRateHelper(,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00600#0000</v>
+        <v>obj_005e8#0000</v>
       </c>
       <c r="F6" s="70"/>
       <c r="G6" s="69"/>
@@ -10549,7 +10550,7 @@
       </c>
       <c r="E7" s="71" t="str">
         <f>_xll.qlDepositRateHelper(,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0060a#0000</v>
+        <v>obj_005e9#0000</v>
       </c>
       <c r="F7" s="70"/>
       <c r="G7" s="69"/>
@@ -10561,7 +10562,7 @@
       </c>
       <c r="C8" s="73" t="str">
         <f>_xll.qlEuribor(,B8,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0060d#0000</v>
+        <v>obj_005df#0000</v>
       </c>
       <c r="D8" s="72" t="str">
         <f t="shared" si="0"/>
@@ -10569,7 +10570,7 @@
       </c>
       <c r="E8" s="71" t="str">
         <f>_xll.qlDepositRateHelper(,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00611#0000</v>
+        <v>obj_005f0#0000</v>
       </c>
       <c r="F8" s="70"/>
       <c r="G8" s="69"/>
@@ -10589,7 +10590,7 @@
       </c>
       <c r="E9" s="71" t="str">
         <f>_xll.qlDepositRateHelper(,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0060e#0000</v>
+        <v>obj_005e2#0000</v>
       </c>
       <c r="F9" s="70"/>
       <c r="G9" s="69"/>
@@ -10609,7 +10610,7 @@
       </c>
       <c r="E10" s="71" t="str">
         <f>_xll.qlDepositRateHelper(,D10,C10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00605#0000</v>
+        <v>obj_005de#0000</v>
       </c>
       <c r="F10" s="70" t="str">
         <f>_xll.ohRangeRetrieveError(E10)</f>
@@ -10632,7 +10633,7 @@
       </c>
       <c r="E11" s="71" t="str">
         <f>_xll.qlDepositRateHelper(,D11,C11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005ff#0000</v>
+        <v>obj_005e6#0000</v>
       </c>
       <c r="F11" s="70" t="str">
         <f>_xll.ohRangeRetrieveError(E11)</f>
@@ -10647,7 +10648,7 @@
       </c>
       <c r="C12" s="73" t="str">
         <f>_xll.qlEuribor(,B12,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00603#0000</v>
+        <v>obj_005db#0000</v>
       </c>
       <c r="D12" s="72" t="str">
         <f t="shared" si="0"/>
@@ -10655,7 +10656,7 @@
       </c>
       <c r="E12" s="71" t="str">
         <f>_xll.qlDepositRateHelper(,D12,C12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00604#0000</v>
+        <v>obj_005ee#0000</v>
       </c>
       <c r="F12" s="70" t="str">
         <f>_xll.ohRangeRetrieveError(E12)</f>
@@ -10670,7 +10671,7 @@
       </c>
       <c r="C13" s="73" t="str">
         <f>_xll.qlEuribor(,B13,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_005fc#0000</v>
+        <v>obj_005dd#0000</v>
       </c>
       <c r="D13" s="72" t="str">
         <f t="shared" si="0"/>
@@ -10678,7 +10679,7 @@
       </c>
       <c r="E13" s="71" t="str">
         <f>_xll.qlDepositRateHelper(,D13,C13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00613#0000</v>
+        <v>obj_005ef#0000</v>
       </c>
       <c r="F13" s="70" t="str">
         <f>_xll.ohRangeRetrieveError(E13)</f>
@@ -10701,7 +10702,7 @@
       </c>
       <c r="E14" s="71" t="str">
         <f>_xll.qlDepositRateHelper(,D14,C14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0060b#0000</v>
+        <v>obj_005da#0000</v>
       </c>
       <c r="F14" s="70" t="str">
         <f>_xll.ohRangeRetrieveError(E14)</f>
@@ -10716,7 +10717,7 @@
       </c>
       <c r="C15" s="73" t="str">
         <f>_xll.qlEuribor(,B15,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00606#0000</v>
+        <v>obj_005e1#0000</v>
       </c>
       <c r="D15" s="72" t="str">
         <f t="shared" si="0"/>
@@ -10724,7 +10725,7 @@
       </c>
       <c r="E15" s="71" t="str">
         <f>_xll.qlDepositRateHelper(,D15,C15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00607#0000</v>
+        <v>obj_005e4#0000</v>
       </c>
       <c r="F15" s="70"/>
       <c r="G15" s="69"/>
@@ -10736,7 +10737,7 @@
       </c>
       <c r="C16" s="73" t="str">
         <f>_xll.qlEuribor(,B16,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_005fe#0000</v>
+        <v>obj_005e3#0000</v>
       </c>
       <c r="D16" s="72" t="str">
         <f t="shared" si="0"/>
@@ -10744,7 +10745,7 @@
       </c>
       <c r="E16" s="71" t="str">
         <f>_xll.qlDepositRateHelper(,D16,C16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00612#0000</v>
+        <v>obj_005ed#0000</v>
       </c>
       <c r="F16" s="70"/>
       <c r="G16" s="69"/>
@@ -10764,7 +10765,7 @@
       </c>
       <c r="E17" s="71" t="str">
         <f>_xll.qlDepositRateHelper(,D17,C17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0060c#0000</v>
+        <v>obj_005dc#0000</v>
       </c>
       <c r="F17" s="70" t="str">
         <f>_xll.ohRangeRetrieveError(E17)</f>
@@ -10779,7 +10780,7 @@
       </c>
       <c r="C18" s="73" t="str">
         <f>_xll.qlEuribor(,B18,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00608#0000</v>
+        <v>obj_005e7#0000</v>
       </c>
       <c r="D18" s="72" t="str">
         <f t="shared" si="0"/>
@@ -10787,7 +10788,7 @@
       </c>
       <c r="E18" s="71" t="str">
         <f>_xll.qlDepositRateHelper(,D18,C18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00609#0000</v>
+        <v>obj_005ec#0000</v>
       </c>
       <c r="F18" s="70"/>
       <c r="G18" s="69"/>
@@ -10799,7 +10800,7 @@
       </c>
       <c r="C19" s="73" t="str">
         <f>_xll.qlEuribor(,B19,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00601#0000</v>
+        <v>obj_005ea#0000</v>
       </c>
       <c r="D19" s="72" t="str">
         <f t="shared" si="0"/>
@@ -10807,7 +10808,7 @@
       </c>
       <c r="E19" s="71" t="str">
         <f>_xll.qlDepositRateHelper(,D19,C19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00610#0000</v>
+        <v>obj_005eb#0000</v>
       </c>
       <c r="F19" s="70"/>
       <c r="G19" s="69"/>
@@ -10827,7 +10828,7 @@
       </c>
       <c r="E20" s="71" t="str">
         <f>_xll.qlDepositRateHelper(,D20,C20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00614#0000</v>
+        <v>obj_005f1#0000</v>
       </c>
       <c r="F20" s="70" t="str">
         <f>_xll.ohRangeRetrieveError(E20)</f>
@@ -10839,7 +10840,7 @@
       <c r="A21" s="75"/>
       <c r="B21" s="74" t="str">
         <f>(_xll.qlCalendarBusinessDaysBetween(Calendar,_xll.qlCalendarAdvance(Calendar,_xll.qlSettingsEvaluationDate(Trigger),2&amp;"D",,,Trigger),C25,Trigger)-1)&amp;"D"</f>
-        <v>156D</v>
+        <v>142D</v>
       </c>
       <c r="C21" s="198" t="s">
         <v>126</v>
@@ -10850,7 +10851,7 @@
       </c>
       <c r="E21" s="71" t="str">
         <f>_xll.qlDepositRateHelper2(,D21,B21,2,Calendar,"mf",FALSE,"ACT/360",Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005fb#0000</v>
+        <v>obj_005d8#0001</v>
       </c>
       <c r="F21" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(E21)</f>
@@ -10871,7 +10872,7 @@
     <row r="24" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="65" t="str">
         <f>_xll.qlIMMNextCode(_xll.qlSettingsEvaluationDate(Trigger),TRUE,Trigger)</f>
-        <v>Z4</v>
+        <v>H5</v>
       </c>
       <c r="B24" s="197" t="s">
         <v>127</v>
@@ -10886,18 +10887,19 @@
     <row r="25" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="195" t="str">
         <f>_xll.qlIMMNextCode(_xll.qlIMMdate(A24,,Trigger),TRUE,Trigger)</f>
-        <v>H5</v>
-      </c>
-      <c r="B25" s="200" t="s">
-        <v>130</v>
+        <v>M5</v>
+      </c>
+      <c r="B25" s="200" t="str">
+        <f>_xll.qlIMMNextCode(_xll.qlIMMdate(A25,,Trigger),TRUE,Trigger)</f>
+        <v>U5</v>
       </c>
       <c r="C25" s="200">
         <f>_xll.qlIMMdate(B25,,Trigger)</f>
-        <v>42172</v>
+        <v>42263</v>
       </c>
       <c r="D25" s="200">
         <f>_xll.qlRateHelperLatestDate(E21,Trigger)</f>
-        <v>42172</v>
+        <v>42263</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10994,7 +10996,7 @@
       </c>
       <c r="D3" s="118" t="str">
         <f t="array" ref="D3:D44">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$C3:$C44)</f>
-        <v>X4</v>
+        <v>H5</v>
       </c>
       <c r="E3" s="118" t="str">
         <f t="shared" ref="E3:E34" si="0">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
@@ -11002,15 +11004,15 @@
       </c>
       <c r="F3" s="117" t="str">
         <f t="shared" ref="F3:F34" si="1">Currency&amp;"FUT"&amp;$E$1&amp;$D3&amp;QuoteSuffix</f>
-        <v>EURFUT3MX4_Quote</v>
+        <v>EURFUT3MH5_Quote</v>
       </c>
       <c r="G3" s="117" t="str">
         <f t="shared" ref="G3:G34" si="2">Currency&amp;"FUT"&amp;$E$1&amp;$D3&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>EURFUT3MX4ConvAdj_Quote</v>
+        <v>EURFUT3MH5ConvAdj_Quote</v>
       </c>
       <c r="H3" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0065a#0000</v>
+        <v>obj_00635#0000</v>
       </c>
       <c r="I3" s="123" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -11028,7 +11030,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="119" t="str">
-        <v>Z4</v>
+        <v>J5</v>
       </c>
       <c r="E4" s="118" t="str">
         <f t="shared" si="0"/>
@@ -11036,15 +11038,15 @@
       </c>
       <c r="F4" s="117" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MZ4_Quote</v>
+        <v>EURFUT3MJ5_Quote</v>
       </c>
       <c r="G4" s="117" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MZ4ConvAdj_Quote</v>
+        <v>EURFUT3MJ5ConvAdj_Quote</v>
       </c>
       <c r="H4" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00626#0000</v>
+        <v>obj_005f5#0000</v>
       </c>
       <c r="I4" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -11062,7 +11064,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="119" t="str">
-        <v>F5</v>
+        <v>K5</v>
       </c>
       <c r="E5" s="118" t="str">
         <f t="shared" si="0"/>
@@ -11070,15 +11072,15 @@
       </c>
       <c r="F5" s="117" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MF5_Quote</v>
+        <v>EURFUT3MK5_Quote</v>
       </c>
       <c r="G5" s="117" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MF5ConvAdj_Quote</v>
+        <v>EURFUT3MK5ConvAdj_Quote</v>
       </c>
       <c r="H5" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00621#0000</v>
+        <v>obj_0062d#0000</v>
       </c>
       <c r="I5" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H5)</f>
@@ -11096,7 +11098,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="119" t="str">
-        <v>G5</v>
+        <v>M5</v>
       </c>
       <c r="E6" s="118" t="str">
         <f t="shared" si="0"/>
@@ -11104,15 +11106,15 @@
       </c>
       <c r="F6" s="117" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MG5_Quote</v>
+        <v>EURFUT3MM5_Quote</v>
       </c>
       <c r="G6" s="117" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MG5ConvAdj_Quote</v>
+        <v>EURFUT3MM5ConvAdj_Quote</v>
       </c>
       <c r="H6" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00639#0000</v>
+        <v>obj_0061d#0000</v>
       </c>
       <c r="I6" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H6)</f>
@@ -11130,7 +11132,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="119" t="str">
-        <v>H5</v>
+        <v>N5</v>
       </c>
       <c r="E7" s="118" t="str">
         <f t="shared" si="0"/>
@@ -11138,15 +11140,15 @@
       </c>
       <c r="F7" s="117" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MH5_Quote</v>
+        <v>EURFUT3MN5_Quote</v>
       </c>
       <c r="G7" s="117" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MH5ConvAdj_Quote</v>
+        <v>EURFUT3MN5ConvAdj_Quote</v>
       </c>
       <c r="H7" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00656#0000</v>
+        <v>obj_00640#0000</v>
       </c>
       <c r="I7" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H7)</f>
@@ -11164,7 +11166,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="119" t="str">
-        <v>J5</v>
+        <v>Q5</v>
       </c>
       <c r="E8" s="118" t="str">
         <f t="shared" si="0"/>
@@ -11172,15 +11174,15 @@
       </c>
       <c r="F8" s="117" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MJ5_Quote</v>
+        <v>EURFUT3MQ5_Quote</v>
       </c>
       <c r="G8" s="117" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MJ5ConvAdj_Quote</v>
+        <v>EURFUT3MQ5ConvAdj_Quote</v>
       </c>
       <c r="H8" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00632#0000</v>
+        <v>obj_00637#0000</v>
       </c>
       <c r="I8" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H8)</f>
@@ -11198,7 +11200,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="119" t="str">
-        <v>K5</v>
+        <v>U5</v>
       </c>
       <c r="E9" s="118" t="str">
         <f t="shared" si="0"/>
@@ -11206,15 +11208,15 @@
       </c>
       <c r="F9" s="117" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MK5_Quote</v>
+        <v>EURFUT3MU5_Quote</v>
       </c>
       <c r="G9" s="117" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MK5ConvAdj_Quote</v>
+        <v>EURFUT3MU5ConvAdj_Quote</v>
       </c>
       <c r="H9" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00655#0000</v>
+        <v>obj_00606#0000</v>
       </c>
       <c r="I9" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H9)</f>
@@ -11232,7 +11234,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="119" t="str">
-        <v>M5</v>
+        <v>V5</v>
       </c>
       <c r="E10" s="118" t="str">
         <f t="shared" si="0"/>
@@ -11240,15 +11242,15 @@
       </c>
       <c r="F10" s="117" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MM5_Quote</v>
+        <v>EURFUT3MV5_Quote</v>
       </c>
       <c r="G10" s="117" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MM5ConvAdj_Quote</v>
+        <v>EURFUT3MV5ConvAdj_Quote</v>
       </c>
       <c r="H10" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0065b#0000</v>
+        <v>obj_00639#0000</v>
       </c>
       <c r="I10" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H10)</f>
@@ -11266,7 +11268,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="119" t="str">
-        <v>N5</v>
+        <v>X5</v>
       </c>
       <c r="E11" s="118" t="str">
         <f t="shared" si="0"/>
@@ -11274,15 +11276,15 @@
       </c>
       <c r="F11" s="117" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MN5_Quote</v>
+        <v>EURFUT3MX5_Quote</v>
       </c>
       <c r="G11" s="117" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MN5ConvAdj_Quote</v>
+        <v>EURFUT3MX5ConvAdj_Quote</v>
       </c>
       <c r="H11" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00634#0000</v>
+        <v>obj_00608#0000</v>
       </c>
       <c r="I11" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H11)</f>
@@ -11300,7 +11302,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="119" t="str">
-        <v>Q5</v>
+        <v>Z5</v>
       </c>
       <c r="E12" s="118" t="str">
         <f t="shared" si="0"/>
@@ -11308,15 +11310,15 @@
       </c>
       <c r="F12" s="117" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MQ5_Quote</v>
+        <v>EURFUT3MZ5_Quote</v>
       </c>
       <c r="G12" s="117" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MQ5ConvAdj_Quote</v>
+        <v>EURFUT3MZ5ConvAdj_Quote</v>
       </c>
       <c r="H12" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00660#0000</v>
+        <v>obj_00615#0000</v>
       </c>
       <c r="I12" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H12)</f>
@@ -11334,7 +11336,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="119" t="str">
-        <v>U5</v>
+        <v>F6</v>
       </c>
       <c r="E13" s="118" t="str">
         <f t="shared" si="0"/>
@@ -11342,15 +11344,15 @@
       </c>
       <c r="F13" s="117" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MU5_Quote</v>
+        <v>EURFUT3MF6_Quote</v>
       </c>
       <c r="G13" s="117" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MU5ConvAdj_Quote</v>
+        <v>EURFUT3MF6ConvAdj_Quote</v>
       </c>
       <c r="H13" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0064c#0000</v>
+        <v>obj_00634#0000</v>
       </c>
       <c r="I13" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H13)</f>
@@ -11368,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="119" t="str">
-        <v>V5</v>
+        <v>G6</v>
       </c>
       <c r="E14" s="118" t="str">
         <f t="shared" si="0"/>
@@ -11376,15 +11378,15 @@
       </c>
       <c r="F14" s="117" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MV5_Quote</v>
+        <v>EURFUT3MG6_Quote</v>
       </c>
       <c r="G14" s="117" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MV5ConvAdj_Quote</v>
+        <v>EURFUT3MG6ConvAdj_Quote</v>
       </c>
       <c r="H14" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00619#0000</v>
+        <v>obj_0060f#0000</v>
       </c>
       <c r="I14" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H14)</f>
@@ -11402,7 +11404,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="119" t="str">
-        <v>Z5</v>
+        <v>H6</v>
       </c>
       <c r="E15" s="118" t="str">
         <f t="shared" si="0"/>
@@ -11410,15 +11412,15 @@
       </c>
       <c r="F15" s="117" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MZ5_Quote</v>
+        <v>EURFUT3MH6_Quote</v>
       </c>
       <c r="G15" s="117" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MZ5ConvAdj_Quote</v>
+        <v>EURFUT3MH6ConvAdj_Quote</v>
       </c>
       <c r="H15" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00622#0000</v>
+        <v>obj_00632#0000</v>
       </c>
       <c r="I15" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H15)</f>
@@ -11436,7 +11438,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="119" t="str">
-        <v>H6</v>
+        <v>M6</v>
       </c>
       <c r="E16" s="118" t="str">
         <f t="shared" si="0"/>
@@ -11444,15 +11446,15 @@
       </c>
       <c r="F16" s="117" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MH6_Quote</v>
+        <v>EURFUT3MM6_Quote</v>
       </c>
       <c r="G16" s="117" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MH6ConvAdj_Quote</v>
+        <v>EURFUT3MM6ConvAdj_Quote</v>
       </c>
       <c r="H16" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0063c#0000</v>
+        <v>obj_005f8#0000</v>
       </c>
       <c r="I16" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H16)</f>
@@ -11470,7 +11472,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="119" t="str">
-        <v>M6</v>
+        <v>U6</v>
       </c>
       <c r="E17" s="118" t="str">
         <f t="shared" si="0"/>
@@ -11478,15 +11480,15 @@
       </c>
       <c r="F17" s="117" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MM6_Quote</v>
+        <v>EURFUT3MU6_Quote</v>
       </c>
       <c r="G17" s="117" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MM6ConvAdj_Quote</v>
+        <v>EURFUT3MU6ConvAdj_Quote</v>
       </c>
       <c r="H17" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00618#0000</v>
+        <v>obj_005fe#0000</v>
       </c>
       <c r="I17" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H17)</f>
@@ -11504,7 +11506,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="119" t="str">
-        <v>U6</v>
+        <v>Z6</v>
       </c>
       <c r="E18" s="118" t="str">
         <f t="shared" si="0"/>
@@ -11512,15 +11514,15 @@
       </c>
       <c r="F18" s="117" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MU6_Quote</v>
+        <v>EURFUT3MZ6_Quote</v>
       </c>
       <c r="G18" s="117" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MU6ConvAdj_Quote</v>
+        <v>EURFUT3MZ6ConvAdj_Quote</v>
       </c>
       <c r="H18" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0062c#0000</v>
+        <v>obj_0063e#0000</v>
       </c>
       <c r="I18" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H18)</f>
@@ -11538,7 +11540,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="119" t="str">
-        <v>Z6</v>
+        <v>H7</v>
       </c>
       <c r="E19" s="118" t="str">
         <f t="shared" si="0"/>
@@ -11546,15 +11548,15 @@
       </c>
       <c r="F19" s="117" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MZ6_Quote</v>
+        <v>EURFUT3MH7_Quote</v>
       </c>
       <c r="G19" s="117" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MZ6ConvAdj_Quote</v>
+        <v>EURFUT3MH7ConvAdj_Quote</v>
       </c>
       <c r="H19" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00641#0000</v>
+        <v>obj_00624#0000</v>
       </c>
       <c r="I19" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H19)</f>
@@ -11572,7 +11574,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="119" t="str">
-        <v>H7</v>
+        <v>M7</v>
       </c>
       <c r="E20" s="118" t="str">
         <f t="shared" si="0"/>
@@ -11580,15 +11582,15 @@
       </c>
       <c r="F20" s="117" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MH7_Quote</v>
+        <v>EURFUT3MM7_Quote</v>
       </c>
       <c r="G20" s="117" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MH7ConvAdj_Quote</v>
+        <v>EURFUT3MM7ConvAdj_Quote</v>
       </c>
       <c r="H20" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0061d#0000</v>
+        <v>obj_00623#0000</v>
       </c>
       <c r="I20" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H20)</f>
@@ -11606,7 +11608,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="119" t="str">
-        <v>M7</v>
+        <v>U7</v>
       </c>
       <c r="E21" s="118" t="str">
         <f t="shared" si="0"/>
@@ -11614,15 +11616,15 @@
       </c>
       <c r="F21" s="117" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MM7_Quote</v>
+        <v>EURFUT3MU7_Quote</v>
       </c>
       <c r="G21" s="117" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MM7ConvAdj_Quote</v>
+        <v>EURFUT3MU7ConvAdj_Quote</v>
       </c>
       <c r="H21" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0065d#0000</v>
+        <v>obj_0060a#0000</v>
       </c>
       <c r="I21" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H21)</f>
@@ -11640,7 +11642,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="119" t="str">
-        <v>U7</v>
+        <v>Z7</v>
       </c>
       <c r="E22" s="118" t="str">
         <f t="shared" si="0"/>
@@ -11648,15 +11650,15 @@
       </c>
       <c r="F22" s="117" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MU7_Quote</v>
+        <v>EURFUT3MZ7_Quote</v>
       </c>
       <c r="G22" s="117" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MU7ConvAdj_Quote</v>
+        <v>EURFUT3MZ7ConvAdj_Quote</v>
       </c>
       <c r="H22" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00664#0000</v>
+        <v>obj_0062b#0000</v>
       </c>
       <c r="I22" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H22)</f>
@@ -11674,7 +11676,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="119" t="str">
-        <v>Z7</v>
+        <v>H8</v>
       </c>
       <c r="E23" s="118" t="str">
         <f t="shared" si="0"/>
@@ -11682,15 +11684,15 @@
       </c>
       <c r="F23" s="117" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MZ7_Quote</v>
+        <v>EURFUT3MH8_Quote</v>
       </c>
       <c r="G23" s="117" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MZ7ConvAdj_Quote</v>
+        <v>EURFUT3MH8ConvAdj_Quote</v>
       </c>
       <c r="H23" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00652#0000</v>
+        <v>obj_0062f#0000</v>
       </c>
       <c r="I23" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H23)</f>
@@ -11708,7 +11710,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="119" t="str">
-        <v>H8</v>
+        <v>M8</v>
       </c>
       <c r="E24" s="118" t="str">
         <f t="shared" si="0"/>
@@ -11716,15 +11718,15 @@
       </c>
       <c r="F24" s="117" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MH8_Quote</v>
+        <v>EURFUT3MM8_Quote</v>
       </c>
       <c r="G24" s="117" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MH8ConvAdj_Quote</v>
+        <v>EURFUT3MM8ConvAdj_Quote</v>
       </c>
       <c r="H24" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0062f#0000</v>
+        <v>obj_00612#0000</v>
       </c>
       <c r="I24" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H24)</f>
@@ -11742,7 +11744,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="119" t="str">
-        <v>M8</v>
+        <v>U8</v>
       </c>
       <c r="E25" s="118" t="str">
         <f t="shared" si="0"/>
@@ -11750,15 +11752,15 @@
       </c>
       <c r="F25" s="117" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MM8_Quote</v>
+        <v>EURFUT3MU8_Quote</v>
       </c>
       <c r="G25" s="117" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MM8ConvAdj_Quote</v>
+        <v>EURFUT3MU8ConvAdj_Quote</v>
       </c>
       <c r="H25" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0063e#0000</v>
+        <v>obj_00627#0000</v>
       </c>
       <c r="I25" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H25)</f>
@@ -11776,7 +11778,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="119" t="str">
-        <v>U8</v>
+        <v>Z8</v>
       </c>
       <c r="E26" s="118" t="str">
         <f t="shared" si="0"/>
@@ -11784,15 +11786,15 @@
       </c>
       <c r="F26" s="117" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MU8_Quote</v>
+        <v>EURFUT3MZ8_Quote</v>
       </c>
       <c r="G26" s="117" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MU8ConvAdj_Quote</v>
+        <v>EURFUT3MZ8ConvAdj_Quote</v>
       </c>
       <c r="H26" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00653#0000</v>
+        <v>obj_0061e#0000</v>
       </c>
       <c r="I26" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H26)</f>
@@ -11810,7 +11812,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="119" t="str">
-        <v>Z8</v>
+        <v>H9</v>
       </c>
       <c r="E27" s="118" t="str">
         <f t="shared" si="0"/>
@@ -11818,15 +11820,15 @@
       </c>
       <c r="F27" s="117" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MZ8_Quote</v>
+        <v>EURFUT3MH9_Quote</v>
       </c>
       <c r="G27" s="117" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MZ8ConvAdj_Quote</v>
+        <v>EURFUT3MH9ConvAdj_Quote</v>
       </c>
       <c r="H27" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0063b#0000</v>
+        <v>obj_0063f#0000</v>
       </c>
       <c r="I27" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H27)</f>
@@ -11844,7 +11846,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="119" t="str">
-        <v>H9</v>
+        <v>M9</v>
       </c>
       <c r="E28" s="118" t="str">
         <f t="shared" si="0"/>
@@ -11852,15 +11854,15 @@
       </c>
       <c r="F28" s="117" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MH9_Quote</v>
+        <v>EURFUT3MM9_Quote</v>
       </c>
       <c r="G28" s="117" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MH9ConvAdj_Quote</v>
+        <v>EURFUT3MM9ConvAdj_Quote</v>
       </c>
       <c r="H28" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00646#0000</v>
+        <v>obj_00619#0000</v>
       </c>
       <c r="I28" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H28)</f>
@@ -11878,7 +11880,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="119" t="str">
-        <v>M9</v>
+        <v>U9</v>
       </c>
       <c r="E29" s="118" t="str">
         <f t="shared" si="0"/>
@@ -11886,15 +11888,15 @@
       </c>
       <c r="F29" s="117" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MM9_Quote</v>
+        <v>EURFUT3MU9_Quote</v>
       </c>
       <c r="G29" s="117" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MM9ConvAdj_Quote</v>
+        <v>EURFUT3MU9ConvAdj_Quote</v>
       </c>
       <c r="H29" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0064b#0000</v>
+        <v>obj_0061a#0000</v>
       </c>
       <c r="I29" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H29)</f>
@@ -11912,7 +11914,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="119" t="str">
-        <v>U9</v>
+        <v>Z9</v>
       </c>
       <c r="E30" s="118" t="str">
         <f t="shared" si="0"/>
@@ -11920,15 +11922,15 @@
       </c>
       <c r="F30" s="117" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MU9_Quote</v>
+        <v>EURFUT3MZ9_Quote</v>
       </c>
       <c r="G30" s="117" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MU9ConvAdj_Quote</v>
+        <v>EURFUT3MZ9ConvAdj_Quote</v>
       </c>
       <c r="H30" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0061c#0000</v>
+        <v>obj_00620#0000</v>
       </c>
       <c r="I30" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H30)</f>
@@ -11946,7 +11948,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="119" t="str">
-        <v>Z9</v>
+        <v>H0</v>
       </c>
       <c r="E31" s="118" t="str">
         <f t="shared" si="0"/>
@@ -11954,15 +11956,15 @@
       </c>
       <c r="F31" s="117" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MZ9_Quote</v>
+        <v>EURFUT3MH0_Quote</v>
       </c>
       <c r="G31" s="117" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MZ9ConvAdj_Quote</v>
+        <v>EURFUT3MH0ConvAdj_Quote</v>
       </c>
       <c r="H31" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0065f#0000</v>
+        <v>obj_0060e#0000</v>
       </c>
       <c r="I31" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H31)</f>
@@ -11980,7 +11982,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="119" t="str">
-        <v>H0</v>
+        <v>M0</v>
       </c>
       <c r="E32" s="118" t="str">
         <f t="shared" si="0"/>
@@ -11988,15 +11990,15 @@
       </c>
       <c r="F32" s="117" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MH0_Quote</v>
+        <v>EURFUT3MM0_Quote</v>
       </c>
       <c r="G32" s="117" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MH0ConvAdj_Quote</v>
+        <v>EURFUT3MM0ConvAdj_Quote</v>
       </c>
       <c r="H32" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00629#0000</v>
+        <v>obj_0061c#0000</v>
       </c>
       <c r="I32" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H32)</f>
@@ -12014,7 +12016,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="119" t="str">
-        <v>M0</v>
+        <v>U0</v>
       </c>
       <c r="E33" s="118" t="str">
         <f t="shared" si="0"/>
@@ -12022,15 +12024,15 @@
       </c>
       <c r="F33" s="117" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MM0_Quote</v>
+        <v>EURFUT3MU0_Quote</v>
       </c>
       <c r="G33" s="117" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MM0ConvAdj_Quote</v>
+        <v>EURFUT3MU0ConvAdj_Quote</v>
       </c>
       <c r="H33" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00625#0000</v>
+        <v>obj_00607#0000</v>
       </c>
       <c r="I33" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H33)</f>
@@ -12048,7 +12050,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="119" t="str">
-        <v>U0</v>
+        <v>Z0</v>
       </c>
       <c r="E34" s="118" t="str">
         <f t="shared" si="0"/>
@@ -12056,15 +12058,15 @@
       </c>
       <c r="F34" s="117" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MU0_Quote</v>
+        <v>EURFUT3MZ0_Quote</v>
       </c>
       <c r="G34" s="117" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MU0ConvAdj_Quote</v>
+        <v>EURFUT3MZ0ConvAdj_Quote</v>
       </c>
       <c r="H34" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0064a#0000</v>
+        <v>obj_0060b#0000</v>
       </c>
       <c r="I34" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H34)</f>
@@ -12082,7 +12084,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="119" t="str">
-        <v>Z0</v>
+        <v>H1</v>
       </c>
       <c r="E35" s="118" t="str">
         <f t="shared" ref="E35:E44" si="3">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
@@ -12090,15 +12092,15 @@
       </c>
       <c r="F35" s="117" t="str">
         <f t="shared" ref="F35:F44" si="4">Currency&amp;"FUT"&amp;$E$1&amp;$D35&amp;QuoteSuffix</f>
-        <v>EURFUT3MZ0_Quote</v>
+        <v>EURFUT3MH1_Quote</v>
       </c>
       <c r="G35" s="117" t="str">
         <f t="shared" ref="G35:G44" si="5">Currency&amp;"FUT"&amp;$E$1&amp;$D35&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>EURFUT3MZ0ConvAdj_Quote</v>
+        <v>EURFUT3MH1ConvAdj_Quote</v>
       </c>
       <c r="H35" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00648#0000</v>
+        <v>obj_0062c#0000</v>
       </c>
       <c r="I35" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H35)</f>
@@ -12116,7 +12118,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="119" t="str">
-        <v>H1</v>
+        <v>M1</v>
       </c>
       <c r="E36" s="118" t="str">
         <f t="shared" si="3"/>
@@ -12124,15 +12126,15 @@
       </c>
       <c r="F36" s="117" t="str">
         <f t="shared" si="4"/>
-        <v>EURFUT3MH1_Quote</v>
+        <v>EURFUT3MM1_Quote</v>
       </c>
       <c r="G36" s="117" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MH1ConvAdj_Quote</v>
+        <v>EURFUT3MM1ConvAdj_Quote</v>
       </c>
       <c r="H36" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00647#0000</v>
+        <v>obj_0063c#0000</v>
       </c>
       <c r="I36" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H36)</f>
@@ -12150,7 +12152,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="119" t="str">
-        <v>M1</v>
+        <v>U1</v>
       </c>
       <c r="E37" s="118" t="str">
         <f t="shared" si="3"/>
@@ -12158,15 +12160,15 @@
       </c>
       <c r="F37" s="117" t="str">
         <f t="shared" si="4"/>
-        <v>EURFUT3MM1_Quote</v>
+        <v>EURFUT3MU1_Quote</v>
       </c>
       <c r="G37" s="117" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MM1ConvAdj_Quote</v>
+        <v>EURFUT3MU1ConvAdj_Quote</v>
       </c>
       <c r="H37" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00651#0000</v>
+        <v>obj_0060c#0000</v>
       </c>
       <c r="I37" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H37)</f>
@@ -12184,7 +12186,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="119" t="str">
-        <v>U1</v>
+        <v>Z1</v>
       </c>
       <c r="E38" s="118" t="str">
         <f t="shared" si="3"/>
@@ -12192,15 +12194,15 @@
       </c>
       <c r="F38" s="117" t="str">
         <f t="shared" si="4"/>
-        <v>EURFUT3MU1_Quote</v>
+        <v>EURFUT3MZ1_Quote</v>
       </c>
       <c r="G38" s="117" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MU1ConvAdj_Quote</v>
+        <v>EURFUT3MZ1ConvAdj_Quote</v>
       </c>
       <c r="H38" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0062e#0000</v>
+        <v>obj_00601#0000</v>
       </c>
       <c r="I38" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H38)</f>
@@ -12218,7 +12220,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="119" t="str">
-        <v>Z1</v>
+        <v>H2</v>
       </c>
       <c r="E39" s="118" t="str">
         <f t="shared" si="3"/>
@@ -12226,15 +12228,15 @@
       </c>
       <c r="F39" s="117" t="str">
         <f t="shared" si="4"/>
-        <v>EURFUT3MZ1_Quote</v>
+        <v>EURFUT3MH2_Quote</v>
       </c>
       <c r="G39" s="117" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MZ1ConvAdj_Quote</v>
+        <v>EURFUT3MH2ConvAdj_Quote</v>
       </c>
       <c r="H39" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00662#0000</v>
+        <v>obj_0061f#0000</v>
       </c>
       <c r="I39" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H39)</f>
@@ -12252,7 +12254,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="119" t="str">
-        <v>H2</v>
+        <v>M2</v>
       </c>
       <c r="E40" s="118" t="str">
         <f t="shared" si="3"/>
@@ -12260,15 +12262,15 @@
       </c>
       <c r="F40" s="117" t="str">
         <f t="shared" si="4"/>
-        <v>EURFUT3MH2_Quote</v>
+        <v>EURFUT3MM2_Quote</v>
       </c>
       <c r="G40" s="117" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MH2ConvAdj_Quote</v>
+        <v>EURFUT3MM2ConvAdj_Quote</v>
       </c>
       <c r="H40" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0064f#0000</v>
+        <v>obj_00609#0000</v>
       </c>
       <c r="I40" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H40)</f>
@@ -12285,7 +12287,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="119" t="str">
-        <v>M2</v>
+        <v>U2</v>
       </c>
       <c r="E41" s="118" t="str">
         <f t="shared" si="3"/>
@@ -12293,15 +12295,15 @@
       </c>
       <c r="F41" s="117" t="str">
         <f t="shared" si="4"/>
-        <v>EURFUT3MM2_Quote</v>
+        <v>EURFUT3MU2_Quote</v>
       </c>
       <c r="G41" s="117" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MM2ConvAdj_Quote</v>
+        <v>EURFUT3MU2ConvAdj_Quote</v>
       </c>
       <c r="H41" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00663#0000</v>
+        <v>obj_0063a#0000</v>
       </c>
       <c r="I41" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H41)</f>
@@ -12318,7 +12320,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="119" t="str">
-        <v>U2</v>
+        <v>Z2</v>
       </c>
       <c r="E42" s="118" t="str">
         <f t="shared" si="3"/>
@@ -12326,15 +12328,15 @@
       </c>
       <c r="F42" s="117" t="str">
         <f t="shared" si="4"/>
-        <v>EURFUT3MU2_Quote</v>
+        <v>EURFUT3MZ2_Quote</v>
       </c>
       <c r="G42" s="117" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MU2ConvAdj_Quote</v>
+        <v>EURFUT3MZ2ConvAdj_Quote</v>
       </c>
       <c r="H42" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0062d#0000</v>
+        <v>obj_005f6#0000</v>
       </c>
       <c r="I42" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H42)</f>
@@ -12351,7 +12353,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="119" t="str">
-        <v>Z2</v>
+        <v>H3</v>
       </c>
       <c r="E43" s="118" t="str">
         <f t="shared" si="3"/>
@@ -12359,15 +12361,15 @@
       </c>
       <c r="F43" s="117" t="str">
         <f t="shared" si="4"/>
-        <v>EURFUT3MZ2_Quote</v>
+        <v>EURFUT3MH3_Quote</v>
       </c>
       <c r="G43" s="117" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MZ2ConvAdj_Quote</v>
+        <v>EURFUT3MH3ConvAdj_Quote</v>
       </c>
       <c r="H43" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00661#0000</v>
+        <v>obj_00630#0000</v>
       </c>
       <c r="I43" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H43)</f>
@@ -12384,7 +12386,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="119" t="str">
-        <v>H3</v>
+        <v>M3</v>
       </c>
       <c r="E44" s="118" t="str">
         <f t="shared" si="3"/>
@@ -12392,15 +12394,15 @@
       </c>
       <c r="F44" s="117" t="str">
         <f t="shared" si="4"/>
-        <v>EURFUT3MH3_Quote</v>
+        <v>EURFUT3MM3_Quote</v>
       </c>
       <c r="G44" s="117" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MH3ConvAdj_Quote</v>
+        <v>EURFUT3MM3ConvAdj_Quote</v>
       </c>
       <c r="H44" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00644#0000</v>
+        <v>obj_00604#0000</v>
       </c>
       <c r="I44" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H44)</f>
@@ -12526,7 +12528,7 @@
       <c r="J3" s="145"/>
       <c r="K3" s="148" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor(,$H$1,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor(,Currency,$H$1,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>obj_005fd#0000</v>
+        <v>obj_005e0#0000</v>
       </c>
       <c r="L3" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(K3)</f>
@@ -12583,7 +12585,7 @@
       </c>
       <c r="K5" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J5,$C5,Calendar,$F5,$G5,$H5,$K$3,$I5,B5,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00627#0000</v>
+        <v>obj_00600#0000</v>
       </c>
       <c r="L5" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K5)</f>
@@ -12625,7 +12627,7 @@
       </c>
       <c r="K6" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J6,$C6,Calendar,$F6,$G6,$H6,$K$3,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00642#0000</v>
+        <v>obj_00626#0000</v>
       </c>
       <c r="L6" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K6)</f>
@@ -12667,7 +12669,7 @@
       </c>
       <c r="K7" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J7,$C7,Calendar,$F7,$G7,$H7,$K$3,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00616#0000</v>
+        <v>obj_00628#0000</v>
       </c>
       <c r="L7" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K7)</f>
@@ -12709,7 +12711,7 @@
       </c>
       <c r="K8" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J8,$C8,Calendar,$F8,$G8,$H8,$K$3,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0061f#0000</v>
+        <v>obj_005ff#0000</v>
       </c>
       <c r="L8" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K8)</f>
@@ -12751,7 +12753,7 @@
       </c>
       <c r="K9" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J9,$C9,Calendar,$F9,$G9,$H9,$K$3,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0063d#0000</v>
+        <v>obj_00603#0000</v>
       </c>
       <c r="L9" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K9)</f>
@@ -12793,7 +12795,7 @@
       </c>
       <c r="K10" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J10,$C10,Calendar,$F10,$G10,$H10,$K$3,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00628#0000</v>
+        <v>obj_00611#0000</v>
       </c>
       <c r="L10" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K10)</f>
@@ -12835,7 +12837,7 @@
       </c>
       <c r="K11" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J11,$C11,Calendar,$F11,$G11,$H11,$K$3,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00631#0000</v>
+        <v>obj_00633#0000</v>
       </c>
       <c r="L11" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K11)</f>
@@ -12877,7 +12879,7 @@
       </c>
       <c r="K12" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J12,$C12,Calendar,$F12,$G12,$H12,$K$3,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0063a#0000</v>
+        <v>obj_00605#0000</v>
       </c>
       <c r="L12" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K12)</f>
@@ -12919,7 +12921,7 @@
       </c>
       <c r="K13" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J13,$C13,Calendar,$F13,$G13,$H13,$K$3,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00659#0000</v>
+        <v>obj_0061b#0000</v>
       </c>
       <c r="L13" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K13)</f>
@@ -12961,7 +12963,7 @@
       </c>
       <c r="K14" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J14,$C14,Calendar,$F14,$G14,$H14,$K$3,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00624#0000</v>
+        <v>obj_0063b#0000</v>
       </c>
       <c r="L14" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K14)</f>
@@ -13003,7 +13005,7 @@
       </c>
       <c r="K15" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J15,$C15,Calendar,$F15,$G15,$H15,$K$3,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00643#0000</v>
+        <v>obj_005f9#0000</v>
       </c>
       <c r="L15" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K15)</f>
@@ -13045,7 +13047,7 @@
       </c>
       <c r="K16" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J16,$C16,Calendar,$F16,$G16,$H16,$K$3,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00654#0000</v>
+        <v>obj_00638#0000</v>
       </c>
       <c r="L16" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K16)</f>
@@ -13087,7 +13089,7 @@
       </c>
       <c r="K17" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J17,$C17,Calendar,$F17,$G17,$H17,$K$3,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00636#0000</v>
+        <v>obj_00602#0000</v>
       </c>
       <c r="L17" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K17)</f>
@@ -13129,7 +13131,7 @@
       </c>
       <c r="K18" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J18,$C18,Calendar,$F18,$G18,$H18,$K$3,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00649#0000</v>
+        <v>obj_005fa#0000</v>
       </c>
       <c r="L18" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K18)</f>
@@ -13171,7 +13173,7 @@
       </c>
       <c r="K19" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J19,$C19,Calendar,$F19,$G19,$H19,$K$3,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0062b#0000</v>
+        <v>obj_0062a#0000</v>
       </c>
       <c r="L19" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K19)</f>
@@ -13213,7 +13215,7 @@
       </c>
       <c r="K20" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J20,$C20,Calendar,$F20,$G20,$H20,$K$3,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0065c#0000</v>
+        <v>obj_00625#0000</v>
       </c>
       <c r="L20" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K20)</f>
@@ -13255,7 +13257,7 @@
       </c>
       <c r="K21" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J21,$C21,Calendar,$F21,$G21,$H21,$K$3,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0063f#0000</v>
+        <v>obj_0062e#0000</v>
       </c>
       <c r="L21" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K21)</f>
@@ -13297,7 +13299,7 @@
       </c>
       <c r="K22" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J22,$C22,Calendar,$F22,$G22,$H22,$K$3,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00637#0000</v>
+        <v>obj_00613#0000</v>
       </c>
       <c r="L22" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K22)</f>
@@ -13339,7 +13341,7 @@
       </c>
       <c r="K23" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J23,$C23,Calendar,$F23,$G23,$H23,$K$3,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00657#0000</v>
+        <v>obj_005fc#0000</v>
       </c>
       <c r="L23" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K23)</f>
@@ -13381,7 +13383,7 @@
       </c>
       <c r="K24" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J24,$C24,Calendar,$F24,$G24,$H24,$K$3,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00640#0000</v>
+        <v>obj_00629#0000</v>
       </c>
       <c r="L24" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K24)</f>
@@ -13423,7 +13425,7 @@
       </c>
       <c r="K25" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J25,$C25,Calendar,$F25,$G25,$H25,$K$3,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0061a#0000</v>
+        <v>obj_00616#0000</v>
       </c>
       <c r="L25" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K25)</f>
@@ -13465,7 +13467,7 @@
       </c>
       <c r="K26" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J26,$C26,Calendar,$F26,$G26,$H26,$K$3,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00638#0000</v>
+        <v>obj_00618#0000</v>
       </c>
       <c r="L26" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K26)</f>
@@ -13507,7 +13509,7 @@
       </c>
       <c r="K27" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J27,$C27,Calendar,$F27,$G27,$H27,$K$3,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00645#0000</v>
+        <v>obj_00614#0000</v>
       </c>
       <c r="L27" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K27)</f>
@@ -13549,7 +13551,7 @@
       </c>
       <c r="K28" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J28,$C28,Calendar,$F28,$G28,$H28,$K$3,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00658#0000</v>
+        <v>obj_0060d#0000</v>
       </c>
       <c r="L28" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K28)</f>
@@ -13591,7 +13593,7 @@
       </c>
       <c r="K29" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J29,$C29,Calendar,$F29,$G29,$H29,$K$3,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0065e#0000</v>
+        <v>obj_005fd#0000</v>
       </c>
       <c r="L29" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K29)</f>
@@ -13633,7 +13635,7 @@
       </c>
       <c r="K30" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J30,$C30,Calendar,$F30,$G30,$H30,$K$3,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0061e#0000</v>
+        <v>obj_005f4#0000</v>
       </c>
       <c r="L30" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K30)</f>
@@ -13675,7 +13677,7 @@
       </c>
       <c r="K31" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J31,$C31,Calendar,$F31,$G31,$H31,$K$3,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0064d#0000</v>
+        <v>obj_00622#0000</v>
       </c>
       <c r="L31" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K31)</f>
@@ -13717,7 +13719,7 @@
       </c>
       <c r="K32" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J32,$C32,Calendar,$F32,$G32,$H32,$K$3,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00620#0000</v>
+        <v>obj_00610#0000</v>
       </c>
       <c r="L32" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K32)</f>
@@ -13759,7 +13761,7 @@
       </c>
       <c r="K33" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J33,$C33,Calendar,$F33,$G33,$H33,$K$3,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00630#0000</v>
+        <v>obj_00617#0000</v>
       </c>
       <c r="L33" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K33)</f>
@@ -13801,7 +13803,7 @@
       </c>
       <c r="K34" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J34,$C34,Calendar,$F34,$G34,$H34,$K$3,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00623#0000</v>
+        <v>obj_00636#0000</v>
       </c>
       <c r="L34" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K34)</f>
@@ -13843,7 +13845,7 @@
       </c>
       <c r="K35" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J35,$C35,Calendar,$F35,$G35,$H35,$K$3,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00635#0000</v>
+        <v>obj_005f7#0000</v>
       </c>
       <c r="L35" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K35)</f>
@@ -13885,7 +13887,7 @@
       </c>
       <c r="K36" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J36,$C36,Calendar,$F36,$G36,$H36,$K$3,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0064e#0000</v>
+        <v>obj_0063d#0000</v>
       </c>
       <c r="L36" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K36)</f>
@@ -13927,7 +13929,7 @@
       </c>
       <c r="K37" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J37,$C37,Calendar,$F37,$G37,$H37,$K$3,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00633#0000</v>
+        <v>obj_00641#0000</v>
       </c>
       <c r="L37" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K37)</f>
@@ -13969,7 +13971,7 @@
       </c>
       <c r="K38" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J38,$C38,Calendar,$F38,$G38,$H38,$K$3,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00617#0000</v>
+        <v>obj_005f3#0000</v>
       </c>
       <c r="L38" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K38)</f>
@@ -14011,7 +14013,7 @@
       </c>
       <c r="K39" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J39,$C39,Calendar,$F39,$G39,$H39,$K$3,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0062a#0000</v>
+        <v>obj_00621#0000</v>
       </c>
       <c r="L39" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K39)</f>
@@ -14053,7 +14055,7 @@
       </c>
       <c r="K40" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J40,$C40,Calendar,$F40,$G40,$H40,$K$3,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00650#0000</v>
+        <v>obj_005fb#0000</v>
       </c>
       <c r="L40" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K40)</f>
@@ -14095,7 +14097,7 @@
       </c>
       <c r="K41" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J41,$C41,Calendar,$F41,$G41,$H41,$K$3,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0061b#0000</v>
+        <v>obj_00631#0000</v>
       </c>
       <c r="L41" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K41)</f>
